--- a/Copia-de-estres.xlsx
+++ b/Copia-de-estres.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff5cd7f6ef7ba8db/Documentos/Modulo python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\familia\Desktop\Velox\Modulo_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_4E84F6AAEE996A1857197ABCEC638CF92009A2B4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B68BEBE3-5233-44C4-B09D-A0C26FAD2EDE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="472">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1438,11 +1437,20 @@
   <si>
     <t>¿Consideras que hay estrés 1 y malo?</t>
   </si>
+  <si>
+    <t>esunproblema-si</t>
+  </si>
+  <si>
+    <t>esunproblema-no</t>
+  </si>
+  <si>
+    <t>esunproblema-talvez</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
@@ -1722,32 +1730,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" customWidth="1"/>
-    <col min="6" max="6" width="57.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" customWidth="1"/>
-    <col min="12" max="12" width="53.5703125" customWidth="1"/>
-    <col min="13" max="13" width="39.5703125" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" customWidth="1"/>
-    <col min="18" max="18" width="28.140625" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="44.42578125" customWidth="1"/>
+    <col min="13" max="13" width="34.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="53.5703125" customWidth="1"/>
+    <col min="16" max="16" width="39.5703125" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="28.140625" customWidth="1"/>
+    <col min="22" max="22" width="16.5703125" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1770,46 +1784,55 @@
         <v>434</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43876.151931909721</v>
       </c>
@@ -1834,44 +1857,53 @@
       <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2</v>
+      </c>
+      <c r="L2" s="5">
         <v>4</v>
       </c>
-      <c r="J2" s="3">
-        <v>2</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="5">
-        <v>3</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="5">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="5">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3">
-        <v>1</v>
-      </c>
-      <c r="T2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2" s="5">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+      <c r="W2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43876.152806168982</v>
       </c>
@@ -1897,43 +1929,52 @@
         <v>1</v>
       </c>
       <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3">
         <v>4</v>
       </c>
-      <c r="J3" s="3">
-        <v>2</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="3">
-        <v>3</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="3">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3">
-        <v>1</v>
-      </c>
-      <c r="T3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3" s="3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43876.51343363426</v>
       </c>
@@ -1959,43 +2000,52 @@
         <v>1</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="5">
+      <c r="P4" s="5">
         <v>5</v>
       </c>
-      <c r="N4" s="3">
-        <v>3</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3">
+        <v>3</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="3">
+      <c r="S4" s="3">
         <v>5</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="3">
+      <c r="U4" s="3">
         <v>7</v>
       </c>
-      <c r="S4" s="3">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43876.513730439816</v>
       </c>
@@ -2018,46 +2068,55 @@
         <v>3</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <v>3</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>3</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="P5" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="3" t="s">
+      <c r="S5" s="5">
+        <v>2</v>
+      </c>
+      <c r="T5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="5">
+      <c r="U5" s="5">
         <v>6</v>
       </c>
-      <c r="S5" s="3">
-        <v>2</v>
-      </c>
-      <c r="T5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V5" s="3">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43876.513898368052</v>
       </c>
@@ -2083,43 +2142,52 @@
         <v>1</v>
       </c>
       <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3">
         <v>7</v>
       </c>
-      <c r="J6" s="3">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="M6" s="5">
+      <c r="P6" s="5">
         <v>5</v>
       </c>
-      <c r="N6" s="3">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3" t="s">
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3" t="s">
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="3">
+      <c r="U6" s="3">
         <v>4</v>
       </c>
-      <c r="S6" s="3">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3">
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43876.513933229166</v>
       </c>
@@ -2142,46 +2210,55 @@
         <v>1</v>
       </c>
       <c r="H7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>3</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3" t="s">
+      <c r="S7" s="3">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="3">
+      <c r="U7" s="3">
         <v>5</v>
       </c>
-      <c r="S7" s="3">
-        <v>1</v>
-      </c>
-      <c r="T7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V7" s="3">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43876.51573944444</v>
       </c>
@@ -2203,47 +2280,56 @@
       <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="5">
-        <v>2</v>
+      <c r="H8" s="3">
+        <v>1</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
         <v>5</v>
       </c>
-      <c r="J8" s="3">
-        <v>2</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3">
+        <v>2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="5">
+      <c r="P8" s="5">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3" t="s">
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3" t="s">
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>4</v>
       </c>
-      <c r="S8" s="3">
-        <v>1</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43876.515839988424</v>
       </c>
@@ -2269,43 +2355,52 @@
         <v>1</v>
       </c>
       <c r="I9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="P9" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="3" t="s">
+      <c r="S9" s="3">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="3">
-        <v>1</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>1</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43876.517788865742</v>
       </c>
@@ -2327,47 +2422,56 @@
       <c r="G10" s="3">
         <v>3</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>5</v>
       </c>
-      <c r="J10" s="3">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="3" t="s">
+      <c r="S10" s="3">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R10" s="5">
-        <v>1</v>
-      </c>
-      <c r="S10" s="3">
-        <v>1</v>
-      </c>
-      <c r="T10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="5">
+        <v>1</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43876.520388645833</v>
       </c>
@@ -2390,46 +2494,55 @@
         <v>3</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>2</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P11" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3" t="s">
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R11" s="3">
-        <v>1</v>
-      </c>
-      <c r="S11" s="3">
-        <v>1</v>
-      </c>
-      <c r="T11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43876.52687898148</v>
       </c>
@@ -2452,46 +2565,55 @@
         <v>1</v>
       </c>
       <c r="H12" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>1</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="3">
+      <c r="S12" s="3">
         <v>4</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R12" s="3">
-        <v>1</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1</v>
-      </c>
-      <c r="T12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
+      <c r="W12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43876.528281990744</v>
       </c>
@@ -2517,43 +2639,52 @@
         <v>1</v>
       </c>
       <c r="I13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="5">
-        <v>2</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="5">
+      <c r="S13" s="5">
         <v>5</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R13" s="3">
-        <v>1</v>
-      </c>
-      <c r="S13" s="3">
-        <v>1</v>
-      </c>
-      <c r="T13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1</v>
+      </c>
+      <c r="W13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43876.568967604166</v>
       </c>
@@ -2579,43 +2710,52 @@
         <v>1</v>
       </c>
       <c r="I14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>2</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="3">
-        <v>1</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P14" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>1</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R14" s="3">
-        <v>1</v>
-      </c>
-      <c r="S14" s="3">
-        <v>1</v>
-      </c>
-      <c r="T14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>1</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1</v>
+      </c>
+      <c r="W14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43876.571373784725</v>
       </c>
@@ -2641,43 +2781,52 @@
         <v>1</v>
       </c>
       <c r="I15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>1</v>
-      </c>
-      <c r="L15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M15" s="3">
-        <v>1</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P15" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="3" t="s">
+      <c r="S15" s="3">
+        <v>1</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="3">
-        <v>1</v>
-      </c>
-      <c r="S15" s="3">
-        <v>1</v>
-      </c>
-      <c r="T15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>1</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1</v>
+      </c>
+      <c r="W15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43876.572217534718</v>
       </c>
@@ -2700,46 +2849,55 @@
         <v>3</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2</v>
+      </c>
+      <c r="L16" s="3">
         <v>5</v>
       </c>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="3">
-        <v>1</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="P16" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="3" t="s">
+      <c r="S16" s="3">
+        <v>3</v>
+      </c>
+      <c r="T16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="3">
-        <v>1</v>
-      </c>
-      <c r="S16" s="3">
-        <v>1</v>
-      </c>
-      <c r="T16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3">
+        <v>1</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1</v>
+      </c>
+      <c r="W16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43876.686556990739</v>
       </c>
@@ -2762,46 +2920,55 @@
         <v>3</v>
       </c>
       <c r="H17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="3">
-        <v>1</v>
-      </c>
-      <c r="L17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M17" s="3">
-        <v>2</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1</v>
-      </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P17" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
+      <c r="S17" s="3">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>4</v>
       </c>
-      <c r="S17" s="3">
-        <v>1</v>
-      </c>
-      <c r="T17" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>1</v>
+      </c>
+      <c r="W17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43876.691362141202</v>
       </c>
@@ -2824,46 +2991,55 @@
         <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="3">
-        <v>1</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P18" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="3" t="s">
+      <c r="S18" s="3">
+        <v>2</v>
+      </c>
+      <c r="T18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R18" s="3">
-        <v>1</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1</v>
-      </c>
-      <c r="T18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>1</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1</v>
+      </c>
+      <c r="W18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43876.71447900463</v>
       </c>
@@ -2886,46 +3062,55 @@
         <v>3</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3">
         <v>1</v>
       </c>
       <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M19" s="3">
-        <v>1</v>
-      </c>
-      <c r="N19" s="3">
-        <v>3</v>
-      </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>3</v>
+      </c>
+      <c r="R19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3" t="s">
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="3">
-        <v>1</v>
-      </c>
-      <c r="S19" s="3">
-        <v>1</v>
-      </c>
-      <c r="T19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3">
+        <v>1</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1</v>
+      </c>
+      <c r="W19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43876.728649837962</v>
       </c>
@@ -2948,46 +3133,55 @@
         <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>1</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="3">
-        <v>1</v>
-      </c>
-      <c r="N20" s="3">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>5</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="R20" s="3">
-        <v>1</v>
-      </c>
-      <c r="S20" s="5">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>1</v>
+      </c>
+      <c r="V20" s="5">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43876.792600972221</v>
       </c>
@@ -3010,46 +3204,55 @@
         <v>2</v>
       </c>
       <c r="H21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
       </c>
       <c r="J21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M21" s="3">
-        <v>1</v>
-      </c>
-      <c r="N21" s="3">
-        <v>2</v>
-      </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>2</v>
+      </c>
+      <c r="R21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="3" t="s">
+      <c r="S21" s="3">
+        <v>1</v>
+      </c>
+      <c r="T21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
-        <v>1</v>
-      </c>
-      <c r="T21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>1</v>
+      </c>
+      <c r="W21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43876.796354907405</v>
       </c>
@@ -3072,46 +3275,55 @@
         <v>1</v>
       </c>
       <c r="H22" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>1</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="M22" s="3">
-        <v>1</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="P22" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="3" t="s">
+      <c r="S22" s="3">
+        <v>1</v>
+      </c>
+      <c r="T22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="R22" s="3">
-        <v>1</v>
-      </c>
-      <c r="S22" s="3">
-        <v>1</v>
-      </c>
-      <c r="T22" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>1</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1</v>
+      </c>
+      <c r="W22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43876.806243680556</v>
       </c>
@@ -3134,46 +3346,55 @@
         <v>3</v>
       </c>
       <c r="H23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23" s="3">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="M23" s="3">
-        <v>1</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1</v>
-      </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>4</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R23" s="3">
-        <v>1</v>
-      </c>
-      <c r="S23" s="3">
-        <v>3</v>
-      </c>
-      <c r="T23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>1</v>
+      </c>
+      <c r="V23" s="3">
+        <v>3</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43876.808283402774</v>
       </c>
@@ -3196,46 +3417,55 @@
         <v>1</v>
       </c>
       <c r="H24" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
         <v>5</v>
       </c>
-      <c r="J24" s="3">
-        <v>2</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3">
+        <v>2</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M24" s="3">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="3">
+      <c r="S24" s="3">
         <v>5</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="R24" s="3">
-        <v>1</v>
-      </c>
-      <c r="S24" s="3">
-        <v>1</v>
-      </c>
-      <c r="T24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>1</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1</v>
+      </c>
+      <c r="W24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43876.80872350694</v>
       </c>
@@ -3261,43 +3491,52 @@
         <v>1</v>
       </c>
       <c r="I25" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K25" s="3">
-        <v>3</v>
-      </c>
-      <c r="L25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="3">
+        <v>3</v>
+      </c>
+      <c r="M25" s="3">
+        <v>3</v>
+      </c>
+      <c r="N25" s="3">
+        <v>3</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M25" s="3">
-        <v>1</v>
-      </c>
-      <c r="N25" s="3">
-        <v>3</v>
-      </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>3</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="P25" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="3" t="s">
+      <c r="S25" s="3">
+        <v>1</v>
+      </c>
+      <c r="T25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="R25" s="3">
-        <v>3</v>
-      </c>
-      <c r="S25" s="3">
-        <v>1</v>
-      </c>
-      <c r="T25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>3</v>
+      </c>
+      <c r="V25" s="3">
+        <v>1</v>
+      </c>
+      <c r="W25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43876.823172291668</v>
       </c>
@@ -3320,46 +3559,55 @@
         <v>2</v>
       </c>
       <c r="H26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
       </c>
       <c r="J26" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="M26" s="3">
-        <v>2</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3" t="s">
+      <c r="P26" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P26" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="3" t="s">
+      <c r="S26" s="3">
+        <v>1</v>
+      </c>
+      <c r="T26" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R26" s="3">
-        <v>1</v>
-      </c>
-      <c r="S26" s="3">
-        <v>1</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>1</v>
+      </c>
+      <c r="V26" s="3">
+        <v>1</v>
+      </c>
+      <c r="W26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43876.825001643519</v>
       </c>
@@ -3382,46 +3630,55 @@
         <v>1</v>
       </c>
       <c r="H27" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="M27" s="3">
-        <v>1</v>
-      </c>
-      <c r="N27" s="3">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
+      <c r="P27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="P27" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="3" t="s">
+      <c r="S27" s="3">
+        <v>1</v>
+      </c>
+      <c r="T27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
-        <v>1</v>
-      </c>
-      <c r="S27" s="3">
-        <v>1</v>
-      </c>
-      <c r="T27" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>1</v>
+      </c>
+      <c r="V27" s="3">
+        <v>1</v>
+      </c>
+      <c r="W27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43876.828738518518</v>
       </c>
@@ -3444,46 +3701,55 @@
         <v>1</v>
       </c>
       <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
         <v>4</v>
       </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3">
-        <v>2</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>2</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="M28" s="3">
-        <v>1</v>
-      </c>
-      <c r="N28" s="3">
-        <v>3</v>
-      </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>3</v>
+      </c>
+      <c r="R28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="P28" s="3">
+      <c r="S28" s="3">
         <v>5</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="R28" s="3">
-        <v>1</v>
-      </c>
-      <c r="S28" s="3">
-        <v>1</v>
-      </c>
-      <c r="T28" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>1</v>
+      </c>
+      <c r="V28" s="3">
+        <v>1</v>
+      </c>
+      <c r="W28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43876.836398159721</v>
       </c>
@@ -3509,43 +3775,52 @@
         <v>1</v>
       </c>
       <c r="I29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>1</v>
-      </c>
-      <c r="L29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>2</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="M29" s="5">
+      <c r="P29" s="5">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>3</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P29" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="S29" s="3">
+        <v>3</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="R29" s="3">
-        <v>3</v>
-      </c>
-      <c r="S29" s="3">
-        <v>1</v>
-      </c>
-      <c r="T29" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>3</v>
+      </c>
+      <c r="V29" s="3">
+        <v>1</v>
+      </c>
+      <c r="W29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43876.878590266206</v>
       </c>
@@ -3568,46 +3843,55 @@
         <v>1</v>
       </c>
       <c r="H30" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
         <v>5</v>
       </c>
-      <c r="J30" s="3">
-        <v>2</v>
-      </c>
-      <c r="K30" s="3">
-        <v>3</v>
-      </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3">
+        <v>2</v>
+      </c>
+      <c r="N30" s="3">
+        <v>3</v>
+      </c>
+      <c r="O30" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="M30" s="3">
-        <v>1</v>
-      </c>
-      <c r="N30" s="3">
-        <v>3</v>
-      </c>
-      <c r="O30" s="3" t="s">
+      <c r="P30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>3</v>
+      </c>
+      <c r="R30" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P30" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="3" t="s">
+      <c r="S30" s="3">
+        <v>1</v>
+      </c>
+      <c r="T30" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="R30" s="5">
+      <c r="U30" s="5">
         <v>6</v>
       </c>
-      <c r="S30" s="3">
-        <v>2</v>
-      </c>
-      <c r="T30" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>2</v>
+      </c>
+      <c r="W30" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43876.896010335651</v>
       </c>
@@ -3633,43 +3917,52 @@
         <v>1</v>
       </c>
       <c r="I31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31" s="3">
-        <v>1</v>
-      </c>
-      <c r="L31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3">
+        <v>2</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M31" s="3">
-        <v>1</v>
-      </c>
-      <c r="N31" s="3">
-        <v>1</v>
-      </c>
-      <c r="O31" s="3" t="s">
+      <c r="P31" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1</v>
+      </c>
+      <c r="R31" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="P31" s="3">
+      <c r="S31" s="3">
         <v>4</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="R31" s="3">
-        <v>1</v>
-      </c>
-      <c r="S31" s="3">
-        <v>1</v>
-      </c>
-      <c r="T31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>1</v>
+      </c>
+      <c r="V31" s="3">
+        <v>1</v>
+      </c>
+      <c r="W31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43876.94603608796</v>
       </c>
@@ -3692,46 +3985,55 @@
         <v>1</v>
       </c>
       <c r="H32" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="M32" s="3">
-        <v>1</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1</v>
-      </c>
-      <c r="O32" s="3" t="s">
+      <c r="P32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1</v>
+      </c>
+      <c r="R32" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="P32" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="3" t="s">
+      <c r="S32" s="3">
+        <v>2</v>
+      </c>
+      <c r="T32" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="R32" s="3">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1</v>
-      </c>
-      <c r="T32" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3">
+        <v>1</v>
+      </c>
+      <c r="W32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43876.984015219903</v>
       </c>
@@ -3757,43 +4059,52 @@
         <v>1</v>
       </c>
       <c r="I33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>1</v>
-      </c>
-      <c r="L33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3">
+        <v>2</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="M33" s="3">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="P33" s="3">
         <v>5</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="Q33" s="3">
+        <v>1</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S33" s="3">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>6</v>
       </c>
-      <c r="S33" s="3">
-        <v>1</v>
-      </c>
-      <c r="T33" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>1</v>
+      </c>
+      <c r="W33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43877.01978412037</v>
       </c>
@@ -3819,43 +4130,52 @@
         <v>1</v>
       </c>
       <c r="I34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="3">
-        <v>1</v>
-      </c>
-      <c r="L34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1</v>
+      </c>
+      <c r="N34" s="3">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="M34" s="3">
-        <v>2</v>
-      </c>
-      <c r="N34" s="3">
-        <v>3</v>
-      </c>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>3</v>
+      </c>
+      <c r="R34" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P34" s="3">
+      <c r="S34" s="3">
         <v>4</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="T34" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="R34" s="3">
-        <v>1</v>
-      </c>
-      <c r="S34" s="3">
-        <v>2</v>
-      </c>
-      <c r="T34" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>1</v>
+      </c>
+      <c r="V34" s="3">
+        <v>2</v>
+      </c>
+      <c r="W34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43877.023175625</v>
       </c>
@@ -3878,46 +4198,55 @@
         <v>1</v>
       </c>
       <c r="H35" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="M35" s="3">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1</v>
-      </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1</v>
+      </c>
+      <c r="R35" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="P35" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3" t="s">
+      <c r="S35" s="3">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>5</v>
       </c>
-      <c r="S35" s="3">
-        <v>1</v>
-      </c>
-      <c r="T35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>1</v>
+      </c>
+      <c r="W35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43877.031955625003</v>
       </c>
@@ -3943,43 +4272,52 @@
         <v>1</v>
       </c>
       <c r="I36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="3">
-        <v>1</v>
-      </c>
-      <c r="L36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3">
+        <v>1</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="M36" s="3">
-        <v>1</v>
-      </c>
-      <c r="N36" s="3">
-        <v>1</v>
-      </c>
-      <c r="O36" s="3" t="s">
+      <c r="P36" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>1</v>
+      </c>
+      <c r="R36" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="P36" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q36" s="3" t="s">
+      <c r="S36" s="3">
+        <v>3</v>
+      </c>
+      <c r="T36" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="R36" s="3">
-        <v>1</v>
-      </c>
-      <c r="S36" s="3">
-        <v>1</v>
-      </c>
-      <c r="T36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U36" s="3">
+        <v>1</v>
+      </c>
+      <c r="V36" s="3">
+        <v>1</v>
+      </c>
+      <c r="W36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43877.354016793979</v>
       </c>
@@ -4002,46 +4340,55 @@
         <v>1</v>
       </c>
       <c r="H37" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
+      <c r="M37" s="3">
+        <v>3</v>
+      </c>
+      <c r="N37" s="3">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="M37" s="3">
-        <v>1</v>
-      </c>
-      <c r="N37" s="3">
-        <v>1</v>
-      </c>
-      <c r="O37" s="3" t="s">
+      <c r="P37" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>1</v>
+      </c>
+      <c r="R37" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="P37" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="3" t="s">
+      <c r="S37" s="3">
+        <v>2</v>
+      </c>
+      <c r="T37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R37" s="3">
-        <v>1</v>
-      </c>
-      <c r="S37" s="3">
-        <v>1</v>
-      </c>
-      <c r="T37" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U37" s="3">
+        <v>1</v>
+      </c>
+      <c r="V37" s="3">
+        <v>1</v>
+      </c>
+      <c r="W37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43877.366725648149</v>
       </c>
@@ -4067,43 +4414,52 @@
         <v>1</v>
       </c>
       <c r="I38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="3">
-        <v>3</v>
-      </c>
-      <c r="L38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1</v>
+      </c>
+      <c r="N38" s="3">
+        <v>3</v>
+      </c>
+      <c r="O38" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M38" s="5">
+      <c r="P38" s="5">
         <v>5</v>
       </c>
-      <c r="N38" s="3">
-        <v>1</v>
-      </c>
-      <c r="O38" s="3" t="s">
+      <c r="Q38" s="3">
+        <v>1</v>
+      </c>
+      <c r="R38" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="P38" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="3" t="s">
+      <c r="S38" s="3">
+        <v>1</v>
+      </c>
+      <c r="T38" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="R38" s="3">
-        <v>3</v>
-      </c>
-      <c r="S38" s="3">
-        <v>1</v>
-      </c>
-      <c r="T38" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="3">
+        <v>3</v>
+      </c>
+      <c r="V38" s="3">
+        <v>1</v>
+      </c>
+      <c r="W38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43877.404174282405</v>
       </c>
@@ -4126,46 +4482,55 @@
         <v>3</v>
       </c>
       <c r="H39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K39" s="3">
-        <v>1</v>
-      </c>
-      <c r="L39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
+      <c r="M39" s="3">
+        <v>3</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M39" s="3">
-        <v>1</v>
-      </c>
-      <c r="N39" s="3">
-        <v>1</v>
-      </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>1</v>
+      </c>
+      <c r="R39" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="P39" s="3">
+      <c r="S39" s="3">
         <v>5</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="T39" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="R39" s="3">
-        <v>1</v>
-      </c>
-      <c r="S39" s="3">
-        <v>3</v>
-      </c>
-      <c r="T39" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3">
+        <v>1</v>
+      </c>
+      <c r="V39" s="3">
+        <v>3</v>
+      </c>
+      <c r="W39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43877.407731041661</v>
       </c>
@@ -4191,43 +4556,52 @@
         <v>1</v>
       </c>
       <c r="I40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="3">
-        <v>1</v>
-      </c>
-      <c r="L40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="M40" s="3">
-        <v>1</v>
-      </c>
-      <c r="N40" s="3">
-        <v>1</v>
-      </c>
-      <c r="O40" s="3" t="s">
+      <c r="P40" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>1</v>
+      </c>
+      <c r="R40" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="P40" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q40" s="3" t="s">
+      <c r="S40" s="3">
+        <v>3</v>
+      </c>
+      <c r="T40" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="R40" s="3">
-        <v>1</v>
-      </c>
-      <c r="S40" s="3">
-        <v>3</v>
-      </c>
-      <c r="T40" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3">
+        <v>1</v>
+      </c>
+      <c r="V40" s="3">
+        <v>3</v>
+      </c>
+      <c r="W40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43877.462583159722</v>
       </c>
@@ -4253,43 +4627,52 @@
         <v>1</v>
       </c>
       <c r="I41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>1</v>
-      </c>
-      <c r="L41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1</v>
+      </c>
+      <c r="M41" s="3">
+        <v>1</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="M41" s="3">
-        <v>1</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1</v>
-      </c>
-      <c r="O41" s="3" t="s">
+      <c r="P41" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>1</v>
+      </c>
+      <c r="R41" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>4</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="T41" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R41" s="3">
-        <v>3</v>
-      </c>
-      <c r="S41" s="3">
-        <v>1</v>
-      </c>
-      <c r="T41" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3">
+        <v>1</v>
+      </c>
+      <c r="W41" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43877.50512001157</v>
       </c>
@@ -4315,43 +4698,52 @@
         <v>1</v>
       </c>
       <c r="I42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>1</v>
-      </c>
-      <c r="L42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3">
+        <v>2</v>
+      </c>
+      <c r="N42" s="3">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M42" s="3">
-        <v>1</v>
-      </c>
-      <c r="N42" s="3">
-        <v>1</v>
-      </c>
-      <c r="O42" s="3" t="s">
+      <c r="P42" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>1</v>
+      </c>
+      <c r="R42" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="P42" s="3">
+      <c r="S42" s="3">
         <v>4</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="R42" s="3">
-        <v>1</v>
-      </c>
-      <c r="S42" s="3">
-        <v>3</v>
-      </c>
-      <c r="T42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>1</v>
+      </c>
+      <c r="V42" s="3">
+        <v>3</v>
+      </c>
+      <c r="W42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43877.510532268519</v>
       </c>
@@ -4377,43 +4769,52 @@
         <v>1</v>
       </c>
       <c r="I43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>1</v>
-      </c>
-      <c r="L43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+      <c r="M43" s="3">
+        <v>2</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M43" s="3">
-        <v>1</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1</v>
-      </c>
-      <c r="O43" s="3" t="s">
+      <c r="P43" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>1</v>
+      </c>
+      <c r="R43" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>4</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="T43" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="R43" s="3">
-        <v>1</v>
-      </c>
-      <c r="S43" s="3">
-        <v>1</v>
-      </c>
-      <c r="T43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>1</v>
+      </c>
+      <c r="V43" s="3">
+        <v>1</v>
+      </c>
+      <c r="W43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43877.51144613426</v>
       </c>
@@ -4436,46 +4837,55 @@
         <v>3</v>
       </c>
       <c r="H44" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+      <c r="M44" s="3">
+        <v>2</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1</v>
+      </c>
+      <c r="O44" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="M44" s="3">
-        <v>1</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1</v>
-      </c>
-      <c r="O44" s="3" t="s">
+      <c r="P44" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>1</v>
+      </c>
+      <c r="R44" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="P44" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="3" t="s">
+      <c r="S44" s="3">
+        <v>1</v>
+      </c>
+      <c r="T44" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="R44" s="3">
-        <v>1</v>
-      </c>
-      <c r="S44" s="3">
-        <v>1</v>
-      </c>
-      <c r="T44" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>1</v>
+      </c>
+      <c r="V44" s="3">
+        <v>1</v>
+      </c>
+      <c r="W44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43877.51183393519</v>
       </c>
@@ -4498,46 +4908,55 @@
         <v>1</v>
       </c>
       <c r="H45" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
+      <c r="M45" s="3">
+        <v>2</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="M45" s="3">
-        <v>1</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1</v>
-      </c>
-      <c r="O45" s="3" t="s">
+      <c r="P45" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>1</v>
+      </c>
+      <c r="R45" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P45" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="3" t="s">
+      <c r="S45" s="3">
+        <v>1</v>
+      </c>
+      <c r="T45" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="R45" s="3">
-        <v>1</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1</v>
-      </c>
-      <c r="T45" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>1</v>
+      </c>
+      <c r="V45" s="3">
+        <v>1</v>
+      </c>
+      <c r="W45" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43877.513191157406</v>
       </c>
@@ -4560,46 +4979,55 @@
         <v>1</v>
       </c>
       <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>4</v>
       </c>
-      <c r="I46" s="3">
-        <v>1</v>
-      </c>
-      <c r="J46" s="3">
-        <v>2</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
-      <c r="L46" s="3" t="s">
+      <c r="L46" s="3">
+        <v>1</v>
+      </c>
+      <c r="M46" s="3">
+        <v>2</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M46" s="3">
-        <v>1</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1</v>
-      </c>
-      <c r="O46" s="3" t="s">
+      <c r="P46" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>1</v>
+      </c>
+      <c r="R46" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="P46" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="3" t="s">
+      <c r="S46" s="3">
+        <v>1</v>
+      </c>
+      <c r="T46" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="R46" s="5" t="s">
+      <c r="U46" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="S46" s="3">
-        <v>1</v>
-      </c>
-      <c r="T46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>1</v>
+      </c>
+      <c r="W46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43877.513202708331</v>
       </c>
@@ -4625,43 +5053,52 @@
         <v>1</v>
       </c>
       <c r="I47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>1</v>
-      </c>
-      <c r="L47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3">
+        <v>2</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="M47" s="3">
-        <v>1</v>
-      </c>
-      <c r="N47" s="3">
-        <v>2</v>
-      </c>
-      <c r="O47" s="3" t="s">
+      <c r="P47" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>2</v>
+      </c>
+      <c r="R47" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>5</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="R47" s="3">
-        <v>1</v>
-      </c>
-      <c r="S47" s="3">
-        <v>2</v>
-      </c>
-      <c r="T47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>1</v>
+      </c>
+      <c r="V47" s="3">
+        <v>2</v>
+      </c>
+      <c r="W47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43877.514064641204</v>
       </c>
@@ -4684,46 +5121,55 @@
         <v>1</v>
       </c>
       <c r="H48" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>1</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="L48" s="3">
+        <v>1</v>
+      </c>
+      <c r="M48" s="3">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="M48" s="3">
-        <v>1</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1</v>
-      </c>
-      <c r="O48" s="3" t="s">
+      <c r="P48" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>1</v>
+      </c>
+      <c r="R48" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="P48" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="3" t="s">
+      <c r="S48" s="3">
+        <v>1</v>
+      </c>
+      <c r="T48" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="R48" s="3">
-        <v>1</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1</v>
-      </c>
-      <c r="T48" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>1</v>
+      </c>
+      <c r="V48" s="3">
+        <v>1</v>
+      </c>
+      <c r="W48" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43877.514085613424</v>
       </c>
@@ -4746,46 +5192,55 @@
         <v>1</v>
       </c>
       <c r="H49" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>1</v>
-      </c>
-      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1</v>
+      </c>
+      <c r="M49" s="3">
+        <v>2</v>
+      </c>
+      <c r="N49" s="3">
+        <v>1</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M49" s="3">
-        <v>2</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1</v>
-      </c>
-      <c r="O49" s="3" t="s">
+      <c r="P49" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>1</v>
+      </c>
+      <c r="R49" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="P49" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="3" t="s">
+      <c r="S49" s="3">
+        <v>1</v>
+      </c>
+      <c r="T49" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="R49" s="3">
-        <v>3</v>
-      </c>
-      <c r="S49" s="3">
-        <v>1</v>
-      </c>
-      <c r="T49" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3">
+        <v>1</v>
+      </c>
+      <c r="W49" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43877.515526400464</v>
       </c>
@@ -4811,43 +5266,52 @@
         <v>1</v>
       </c>
       <c r="I50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50" s="3">
-        <v>1</v>
-      </c>
-      <c r="L50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L50" s="3">
+        <v>1</v>
+      </c>
+      <c r="M50" s="3">
+        <v>2</v>
+      </c>
+      <c r="N50" s="3">
+        <v>1</v>
+      </c>
+      <c r="O50" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="M50" s="3">
-        <v>1</v>
-      </c>
-      <c r="N50" s="3">
-        <v>1</v>
-      </c>
-      <c r="O50" s="3" t="s">
+      <c r="P50" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>1</v>
+      </c>
+      <c r="R50" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="P50" s="3">
+      <c r="S50" s="3">
         <v>5</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="T50" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="R50" s="3">
-        <v>1</v>
-      </c>
-      <c r="S50" s="3">
-        <v>1</v>
-      </c>
-      <c r="T50" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>1</v>
+      </c>
+      <c r="V50" s="3">
+        <v>1</v>
+      </c>
+      <c r="W50" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43877.519209386577</v>
       </c>
@@ -4870,46 +5334,55 @@
         <v>2</v>
       </c>
       <c r="H51" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" s="3">
         <v>1</v>
       </c>
       <c r="J51" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51" s="3">
         <v>1</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="L51" s="3">
+        <v>1</v>
+      </c>
+      <c r="M51" s="3">
+        <v>2</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1</v>
+      </c>
+      <c r="O51" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="M51" s="3">
-        <v>1</v>
-      </c>
-      <c r="N51" s="3">
-        <v>1</v>
-      </c>
-      <c r="O51" s="3" t="s">
+      <c r="P51" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>1</v>
+      </c>
+      <c r="R51" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="P51" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="3" t="s">
+      <c r="S51" s="3">
+        <v>1</v>
+      </c>
+      <c r="T51" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="R51" s="3">
-        <v>3</v>
-      </c>
-      <c r="S51" s="3">
-        <v>1</v>
-      </c>
-      <c r="T51" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>3</v>
+      </c>
+      <c r="V51" s="3">
+        <v>1</v>
+      </c>
+      <c r="W51" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43877.520836932876</v>
       </c>
@@ -4935,43 +5408,52 @@
         <v>1</v>
       </c>
       <c r="I52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1</v>
+      </c>
+      <c r="M52" s="3">
+        <v>2</v>
+      </c>
+      <c r="N52" s="3">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
+      <c r="Q52" s="3">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="P52" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3" t="s">
+      <c r="S52" s="3">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="R52" s="3">
-        <v>1</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1</v>
-      </c>
-      <c r="T52" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>1</v>
+      </c>
+      <c r="V52" s="3">
+        <v>1</v>
+      </c>
+      <c r="W52" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43877.522044282407</v>
       </c>
@@ -4994,46 +5476,55 @@
         <v>1</v>
       </c>
       <c r="H53" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53" s="3">
         <v>1</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="L53" s="3">
+        <v>1</v>
+      </c>
+      <c r="M53" s="3">
+        <v>2</v>
+      </c>
+      <c r="N53" s="3">
+        <v>1</v>
+      </c>
+      <c r="O53" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M53" s="3">
+      <c r="P53" s="3">
         <v>5</v>
       </c>
-      <c r="N53" s="3">
-        <v>1</v>
-      </c>
-      <c r="O53" s="3" t="s">
+      <c r="Q53" s="3">
+        <v>1</v>
+      </c>
+      <c r="R53" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="P53" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="3" t="s">
+      <c r="S53" s="3">
+        <v>1</v>
+      </c>
+      <c r="T53" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="R53" s="3">
-        <v>1</v>
-      </c>
-      <c r="S53" s="3">
-        <v>1</v>
-      </c>
-      <c r="T53" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>1</v>
+      </c>
+      <c r="V53" s="3">
+        <v>1</v>
+      </c>
+      <c r="W53" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43877.523294375002</v>
       </c>
@@ -5056,46 +5547,55 @@
         <v>1</v>
       </c>
       <c r="H54" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>1</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="L54" s="3">
+        <v>1</v>
+      </c>
+      <c r="M54" s="3">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1</v>
+      </c>
+      <c r="O54" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M54" s="3">
-        <v>1</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1</v>
-      </c>
-      <c r="O54" s="3" t="s">
+      <c r="P54" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>1</v>
+      </c>
+      <c r="R54" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="P54" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="3" t="s">
+      <c r="S54" s="3">
+        <v>1</v>
+      </c>
+      <c r="T54" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="R54" s="3">
-        <v>1</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>1</v>
+      </c>
+      <c r="V54" s="3">
+        <v>1</v>
+      </c>
+      <c r="W54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43877.524007673608</v>
       </c>
@@ -5118,46 +5618,55 @@
         <v>3</v>
       </c>
       <c r="H55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55" s="3">
-        <v>1</v>
-      </c>
-      <c r="L55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" s="3">
+        <v>1</v>
+      </c>
+      <c r="M55" s="3">
+        <v>2</v>
+      </c>
+      <c r="N55" s="3">
+        <v>1</v>
+      </c>
+      <c r="O55" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="M55" s="3">
-        <v>2</v>
-      </c>
-      <c r="N55" s="3">
-        <v>1</v>
-      </c>
-      <c r="O55" s="3" t="s">
+      <c r="P55" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>1</v>
+      </c>
+      <c r="R55" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="P55" s="3">
+      <c r="S55" s="3">
         <v>4</v>
       </c>
-      <c r="Q55" s="3" t="s">
+      <c r="T55" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="R55" s="3">
-        <v>1</v>
-      </c>
-      <c r="S55" s="3">
-        <v>1</v>
-      </c>
-      <c r="T55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3">
+        <v>1</v>
+      </c>
+      <c r="V55" s="3">
+        <v>1</v>
+      </c>
+      <c r="W55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43877.524859247686</v>
       </c>
@@ -5183,43 +5692,52 @@
         <v>1</v>
       </c>
       <c r="I56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K56" s="3">
-        <v>1</v>
-      </c>
-      <c r="L56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L56" s="3">
+        <v>1</v>
+      </c>
+      <c r="M56" s="3">
+        <v>3</v>
+      </c>
+      <c r="N56" s="3">
+        <v>1</v>
+      </c>
+      <c r="O56" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="M56" s="3">
-        <v>2</v>
-      </c>
-      <c r="N56" s="3">
-        <v>1</v>
-      </c>
-      <c r="O56" s="3" t="s">
+      <c r="P56" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>1</v>
+      </c>
+      <c r="R56" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="P56" s="3">
+      <c r="S56" s="3">
         <v>5</v>
       </c>
-      <c r="Q56" s="3" t="s">
+      <c r="T56" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="R56" s="3">
-        <v>1</v>
-      </c>
-      <c r="S56" s="3">
-        <v>3</v>
-      </c>
-      <c r="T56" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3">
+        <v>1</v>
+      </c>
+      <c r="V56" s="3">
+        <v>3</v>
+      </c>
+      <c r="W56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43877.525004687501</v>
       </c>
@@ -5242,46 +5760,55 @@
         <v>3</v>
       </c>
       <c r="H57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K57" s="3">
-        <v>1</v>
-      </c>
-      <c r="L57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1</v>
+      </c>
+      <c r="M57" s="3">
+        <v>2</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="M57" s="3">
-        <v>2</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1</v>
-      </c>
-      <c r="O57" s="3" t="s">
+      <c r="P57" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>1</v>
+      </c>
+      <c r="R57" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="P57" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q57" s="3" t="s">
+      <c r="S57" s="3">
+        <v>2</v>
+      </c>
+      <c r="T57" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="R57" s="3">
-        <v>1</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>1</v>
+      </c>
+      <c r="V57" s="3">
+        <v>1</v>
+      </c>
+      <c r="W57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43877.525243946759</v>
       </c>
@@ -5307,43 +5834,52 @@
         <v>1</v>
       </c>
       <c r="I58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>1</v>
-      </c>
-      <c r="L58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1</v>
+      </c>
+      <c r="M58" s="3">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="M58" s="3">
-        <v>1</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1</v>
-      </c>
-      <c r="O58" s="3" t="s">
+      <c r="P58" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>1</v>
+      </c>
+      <c r="R58" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="P58" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="3" t="s">
+      <c r="S58" s="3">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="R58" s="3">
-        <v>1</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1</v>
-      </c>
-      <c r="T58" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>1</v>
+      </c>
+      <c r="V58" s="3">
+        <v>1</v>
+      </c>
+      <c r="W58" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43877.526060185184</v>
       </c>
@@ -5369,43 +5905,52 @@
         <v>1</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>2</v>
+      </c>
+      <c r="L59" s="3">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
-        <v>2</v>
-      </c>
-      <c r="K59" s="3">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
+      <c r="M59" s="3">
+        <v>2</v>
+      </c>
+      <c r="N59" s="3">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
+      <c r="Q59" s="3">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>4</v>
       </c>
-      <c r="Q59" s="3" t="s">
+      <c r="T59" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="R59" s="3">
-        <v>3</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1</v>
-      </c>
-      <c r="T59" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3">
+        <v>1</v>
+      </c>
+      <c r="W59" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43877.526209201387</v>
       </c>
@@ -5428,46 +5973,55 @@
         <v>3</v>
       </c>
       <c r="H60" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60" s="3">
         <v>1</v>
       </c>
-      <c r="L60" s="3" t="s">
+      <c r="L60" s="3">
+        <v>1</v>
+      </c>
+      <c r="M60" s="3">
+        <v>2</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1</v>
+      </c>
+      <c r="O60" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="M60" s="3">
-        <v>1</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1</v>
-      </c>
-      <c r="O60" s="3" t="s">
+      <c r="P60" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1</v>
+      </c>
+      <c r="R60" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>4</v>
       </c>
-      <c r="Q60" s="3" t="s">
+      <c r="T60" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="R60" s="3">
-        <v>1</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>1</v>
+      </c>
+      <c r="V60" s="3">
+        <v>1</v>
+      </c>
+      <c r="W60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43877.526938263887</v>
       </c>
@@ -5490,46 +6044,55 @@
         <v>3</v>
       </c>
       <c r="H61" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>1</v>
       </c>
       <c r="K61" s="3">
-        <v>3</v>
-      </c>
-      <c r="L61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L61" s="3">
+        <v>1</v>
+      </c>
+      <c r="M61" s="3">
+        <v>1</v>
+      </c>
+      <c r="N61" s="3">
+        <v>3</v>
+      </c>
+      <c r="O61" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="M61" s="3">
-        <v>1</v>
-      </c>
-      <c r="N61" s="3">
-        <v>3</v>
-      </c>
-      <c r="O61" s="3" t="s">
+      <c r="P61" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>3</v>
+      </c>
+      <c r="R61" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="P61" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="3" t="s">
+      <c r="S61" s="3">
+        <v>1</v>
+      </c>
+      <c r="T61" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="R61" s="3">
-        <v>1</v>
-      </c>
-      <c r="S61" s="3">
-        <v>1</v>
-      </c>
-      <c r="T61" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>1</v>
+      </c>
+      <c r="V61" s="3">
+        <v>1</v>
+      </c>
+      <c r="W61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43877.527566597222</v>
       </c>
@@ -5552,46 +6115,55 @@
         <v>3</v>
       </c>
       <c r="H62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K62" s="3">
-        <v>1</v>
-      </c>
-      <c r="L62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L62" s="3">
+        <v>1</v>
+      </c>
+      <c r="M62" s="3">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="M62" s="3">
-        <v>1</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1</v>
-      </c>
-      <c r="O62" s="3" t="s">
+      <c r="P62" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>1</v>
+      </c>
+      <c r="R62" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>5</v>
       </c>
-      <c r="Q62" s="3" t="s">
+      <c r="T62" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="R62" s="3">
-        <v>3</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1</v>
-      </c>
-      <c r="T62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3">
+        <v>1</v>
+      </c>
+      <c r="W62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43877.530716666668</v>
       </c>
@@ -5617,43 +6189,52 @@
         <v>1</v>
       </c>
       <c r="I63" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K63" s="3">
-        <v>1</v>
-      </c>
-      <c r="L63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L63" s="3">
+        <v>1</v>
+      </c>
+      <c r="M63" s="3">
+        <v>2</v>
+      </c>
+      <c r="N63" s="3">
+        <v>1</v>
+      </c>
+      <c r="O63" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="M63" s="3">
+      <c r="P63" s="3">
         <v>5</v>
       </c>
-      <c r="N63" s="3">
-        <v>1</v>
-      </c>
-      <c r="O63" s="3" t="s">
+      <c r="Q63" s="3">
+        <v>1</v>
+      </c>
+      <c r="R63" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="P63" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="3" t="s">
+      <c r="S63" s="3">
+        <v>1</v>
+      </c>
+      <c r="T63" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="R63" s="3">
-        <v>1</v>
-      </c>
-      <c r="S63" s="3">
-        <v>1</v>
-      </c>
-      <c r="T63" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>1</v>
+      </c>
+      <c r="V63" s="3">
+        <v>1</v>
+      </c>
+      <c r="W63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43877.532922997685</v>
       </c>
@@ -5679,43 +6260,52 @@
         <v>1</v>
       </c>
       <c r="I64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="3">
-        <v>1</v>
-      </c>
-      <c r="L64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L64" s="3">
+        <v>1</v>
+      </c>
+      <c r="M64" s="3">
+        <v>1</v>
+      </c>
+      <c r="N64" s="3">
+        <v>1</v>
+      </c>
+      <c r="O64" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="M64" s="3">
-        <v>1</v>
-      </c>
-      <c r="N64" s="3">
-        <v>1</v>
-      </c>
-      <c r="O64" s="3" t="s">
+      <c r="P64" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>1</v>
+      </c>
+      <c r="R64" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="P64" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q64" s="3" t="s">
+      <c r="S64" s="3">
+        <v>3</v>
+      </c>
+      <c r="T64" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="R64" s="3">
-        <v>1</v>
-      </c>
-      <c r="S64" s="3">
-        <v>1</v>
-      </c>
-      <c r="T64" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>1</v>
+      </c>
+      <c r="V64" s="3">
+        <v>1</v>
+      </c>
+      <c r="W64" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43877.536490590282</v>
       </c>
@@ -5738,46 +6328,55 @@
         <v>3</v>
       </c>
       <c r="H65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K65" s="3">
-        <v>1</v>
-      </c>
-      <c r="L65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L65" s="3">
+        <v>1</v>
+      </c>
+      <c r="M65" s="3">
+        <v>3</v>
+      </c>
+      <c r="N65" s="3">
+        <v>1</v>
+      </c>
+      <c r="O65" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="M65" s="3">
-        <v>1</v>
-      </c>
-      <c r="N65" s="3">
-        <v>1</v>
-      </c>
-      <c r="O65" s="5" t="s">
+      <c r="P65" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>1</v>
+      </c>
+      <c r="R65" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="P65" s="3">
+      <c r="S65" s="3">
         <v>5</v>
       </c>
-      <c r="Q65" s="3" t="s">
+      <c r="T65" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="R65" s="3">
-        <v>1</v>
-      </c>
-      <c r="S65" s="3">
-        <v>1</v>
-      </c>
-      <c r="T65" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>1</v>
+      </c>
+      <c r="V65" s="3">
+        <v>1</v>
+      </c>
+      <c r="W65" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>43877.539898773146</v>
       </c>
@@ -5800,46 +6399,55 @@
         <v>1</v>
       </c>
       <c r="H66" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
-        <v>1</v>
-      </c>
-      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1</v>
+      </c>
+      <c r="M66" s="3">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1</v>
+      </c>
+      <c r="O66" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="M66" s="3">
-        <v>1</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1</v>
-      </c>
-      <c r="O66" s="3" t="s">
+      <c r="P66" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1</v>
+      </c>
+      <c r="R66" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>5</v>
       </c>
-      <c r="Q66" s="3" t="s">
+      <c r="T66" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="R66" s="3">
-        <v>1</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1</v>
-      </c>
-      <c r="T66" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>1</v>
+      </c>
+      <c r="V66" s="3">
+        <v>1</v>
+      </c>
+      <c r="W66" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>43877.542720289348</v>
       </c>
@@ -5862,46 +6470,55 @@
         <v>1</v>
       </c>
       <c r="H67" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K67" s="3">
         <v>1</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="L67" s="3">
+        <v>1</v>
+      </c>
+      <c r="M67" s="3">
+        <v>2</v>
+      </c>
+      <c r="N67" s="3">
+        <v>1</v>
+      </c>
+      <c r="O67" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="M67" s="3">
+      <c r="P67" s="3">
         <v>5</v>
       </c>
-      <c r="N67" s="3">
-        <v>1</v>
-      </c>
-      <c r="O67" s="3" t="s">
+      <c r="Q67" s="3">
+        <v>1</v>
+      </c>
+      <c r="R67" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="P67" s="3">
+      <c r="S67" s="3">
         <v>4</v>
       </c>
-      <c r="Q67" s="3" t="s">
+      <c r="T67" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="R67" s="3">
-        <v>1</v>
-      </c>
-      <c r="S67" s="3">
-        <v>1</v>
-      </c>
-      <c r="T67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3">
+        <v>1</v>
+      </c>
+      <c r="V67" s="3">
+        <v>1</v>
+      </c>
+      <c r="W67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43877.544629861106</v>
       </c>
@@ -5927,43 +6544,52 @@
         <v>1</v>
       </c>
       <c r="I68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="3">
-        <v>1</v>
-      </c>
-      <c r="L68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1</v>
+      </c>
+      <c r="M68" s="3">
+        <v>1</v>
+      </c>
+      <c r="N68" s="3">
+        <v>1</v>
+      </c>
+      <c r="O68" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="M68" s="5">
+      <c r="P68" s="5">
         <v>5</v>
       </c>
-      <c r="N68" s="3">
-        <v>1</v>
-      </c>
-      <c r="O68" s="3" t="s">
+      <c r="Q68" s="3">
+        <v>1</v>
+      </c>
+      <c r="R68" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="P68" s="3">
+      <c r="S68" s="3">
         <v>4</v>
       </c>
-      <c r="Q68" s="3" t="s">
+      <c r="T68" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="R68" s="3">
-        <v>1</v>
-      </c>
-      <c r="S68" s="3">
-        <v>1</v>
-      </c>
-      <c r="T68" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>1</v>
+      </c>
+      <c r="V68" s="3">
+        <v>1</v>
+      </c>
+      <c r="W68" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>43877.5452377662</v>
       </c>
@@ -5986,46 +6612,55 @@
         <v>1</v>
       </c>
       <c r="H69" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K69" s="3">
         <v>1</v>
       </c>
-      <c r="L69" s="3" t="s">
+      <c r="L69" s="3">
+        <v>1</v>
+      </c>
+      <c r="M69" s="3">
+        <v>2</v>
+      </c>
+      <c r="N69" s="3">
+        <v>1</v>
+      </c>
+      <c r="O69" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="M69" s="3">
+      <c r="P69" s="3">
         <v>5</v>
       </c>
-      <c r="N69" s="3">
-        <v>2</v>
-      </c>
-      <c r="O69" s="3" t="s">
+      <c r="Q69" s="3">
+        <v>2</v>
+      </c>
+      <c r="R69" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="P69" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q69" s="3" t="s">
+      <c r="S69" s="3">
+        <v>3</v>
+      </c>
+      <c r="T69" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="R69" s="3">
-        <v>1</v>
-      </c>
-      <c r="S69" s="3">
-        <v>1</v>
-      </c>
-      <c r="T69" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>1</v>
+      </c>
+      <c r="V69" s="3">
+        <v>1</v>
+      </c>
+      <c r="W69" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>43877.546614664352</v>
       </c>
@@ -6051,43 +6686,52 @@
         <v>1</v>
       </c>
       <c r="I70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>1</v>
-      </c>
-      <c r="L70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L70" s="3">
+        <v>1</v>
+      </c>
+      <c r="M70" s="3">
+        <v>1</v>
+      </c>
+      <c r="N70" s="3">
+        <v>1</v>
+      </c>
+      <c r="O70" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="M70" s="3">
-        <v>1</v>
-      </c>
-      <c r="N70" s="3">
-        <v>1</v>
-      </c>
-      <c r="O70" s="3" t="s">
+      <c r="P70" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>1</v>
+      </c>
+      <c r="R70" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="P70" s="3">
+      <c r="S70" s="3">
         <v>4</v>
       </c>
-      <c r="Q70" s="3" t="s">
+      <c r="T70" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R70" s="3">
-        <v>1</v>
-      </c>
-      <c r="S70" s="3">
-        <v>1</v>
-      </c>
-      <c r="T70" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>1</v>
+      </c>
+      <c r="V70" s="3">
+        <v>1</v>
+      </c>
+      <c r="W70" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>43877.547586168977</v>
       </c>
@@ -6110,46 +6754,55 @@
         <v>1</v>
       </c>
       <c r="H71" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0</v>
+      </c>
+      <c r="K71" s="3">
+        <v>1</v>
+      </c>
+      <c r="L71" s="3">
         <v>5</v>
       </c>
-      <c r="J71" s="3">
-        <v>2</v>
-      </c>
-      <c r="K71" s="3">
-        <v>1</v>
-      </c>
-      <c r="L71" s="3" t="s">
+      <c r="M71" s="3">
+        <v>2</v>
+      </c>
+      <c r="N71" s="3">
+        <v>1</v>
+      </c>
+      <c r="O71" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M71" s="3">
-        <v>1</v>
-      </c>
-      <c r="N71" s="3">
-        <v>1</v>
-      </c>
-      <c r="O71" s="3" t="s">
+      <c r="P71" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>1</v>
+      </c>
+      <c r="R71" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="P71" s="3">
+      <c r="S71" s="3">
         <v>5</v>
       </c>
-      <c r="Q71" s="3" t="s">
+      <c r="T71" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="R71" s="3">
-        <v>3</v>
-      </c>
-      <c r="S71" s="3">
-        <v>1</v>
-      </c>
-      <c r="T71" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>3</v>
+      </c>
+      <c r="V71" s="3">
+        <v>1</v>
+      </c>
+      <c r="W71" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>43877.551381921294</v>
       </c>
@@ -6172,46 +6825,55 @@
         <v>3</v>
       </c>
       <c r="H72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J72" s="3">
         <v>1</v>
       </c>
       <c r="K72" s="3">
-        <v>1</v>
-      </c>
-      <c r="L72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L72" s="3">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
+        <v>1</v>
+      </c>
+      <c r="N72" s="3">
+        <v>1</v>
+      </c>
+      <c r="O72" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="M72" s="3">
-        <v>1</v>
-      </c>
-      <c r="N72" s="3">
-        <v>1</v>
-      </c>
-      <c r="O72" s="3" t="s">
+      <c r="P72" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>1</v>
+      </c>
+      <c r="R72" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="P72" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q72" s="3" t="s">
+      <c r="S72" s="3">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="R72" s="3">
-        <v>3</v>
-      </c>
-      <c r="S72" s="3">
-        <v>1</v>
-      </c>
-      <c r="T72" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3">
+        <v>1</v>
+      </c>
+      <c r="W72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43877.552065081021</v>
       </c>
@@ -6234,46 +6896,55 @@
         <v>3</v>
       </c>
       <c r="H73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K73" s="3">
-        <v>1</v>
-      </c>
-      <c r="L73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L73" s="3">
+        <v>1</v>
+      </c>
+      <c r="M73" s="3">
+        <v>3</v>
+      </c>
+      <c r="N73" s="3">
+        <v>1</v>
+      </c>
+      <c r="O73" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="M73" s="3">
-        <v>1</v>
-      </c>
-      <c r="N73" s="3">
-        <v>1</v>
-      </c>
-      <c r="O73" s="3">
-        <v>3</v>
-      </c>
       <c r="P73" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>1</v>
+      </c>
+      <c r="R73" s="3">
+        <v>3</v>
+      </c>
+      <c r="S73" s="3">
         <v>5</v>
       </c>
-      <c r="Q73" s="3" t="s">
+      <c r="T73" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="R73" s="3">
-        <v>1</v>
-      </c>
-      <c r="S73" s="3">
-        <v>1</v>
-      </c>
-      <c r="T73" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>1</v>
+      </c>
+      <c r="V73" s="3">
+        <v>1</v>
+      </c>
+      <c r="W73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43877.55823516204</v>
       </c>
@@ -6296,46 +6967,55 @@
         <v>3</v>
       </c>
       <c r="H74" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K74" s="3">
         <v>1</v>
       </c>
-      <c r="L74" s="3" t="s">
+      <c r="L74" s="3">
+        <v>1</v>
+      </c>
+      <c r="M74" s="3">
+        <v>2</v>
+      </c>
+      <c r="N74" s="3">
+        <v>1</v>
+      </c>
+      <c r="O74" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="M74" s="3">
-        <v>1</v>
-      </c>
-      <c r="N74" s="3">
-        <v>1</v>
-      </c>
-      <c r="O74" s="3" t="s">
+      <c r="P74" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>1</v>
+      </c>
+      <c r="R74" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="P74" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="3" t="s">
+      <c r="S74" s="3">
+        <v>1</v>
+      </c>
+      <c r="T74" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="R74" s="3">
-        <v>1</v>
-      </c>
-      <c r="S74" s="3">
-        <v>1</v>
-      </c>
-      <c r="T74" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>1</v>
+      </c>
+      <c r="V74" s="3">
+        <v>1</v>
+      </c>
+      <c r="W74" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43877.568427025464</v>
       </c>
@@ -6358,46 +7038,55 @@
         <v>1</v>
       </c>
       <c r="H75" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K75" s="3">
         <v>1</v>
       </c>
-      <c r="L75" s="3" t="s">
+      <c r="L75" s="3">
+        <v>1</v>
+      </c>
+      <c r="M75" s="3">
+        <v>2</v>
+      </c>
+      <c r="N75" s="3">
+        <v>1</v>
+      </c>
+      <c r="O75" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="M75" s="3">
-        <v>1</v>
-      </c>
-      <c r="N75" s="3">
-        <v>1</v>
-      </c>
-      <c r="O75" s="3" t="s">
+      <c r="P75" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>1</v>
+      </c>
+      <c r="R75" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="P75" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="3" t="s">
+      <c r="S75" s="3">
+        <v>1</v>
+      </c>
+      <c r="T75" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="R75" s="3">
-        <v>1</v>
-      </c>
-      <c r="S75" s="3">
-        <v>1</v>
-      </c>
-      <c r="T75" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>1</v>
+      </c>
+      <c r="V75" s="3">
+        <v>1</v>
+      </c>
+      <c r="W75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43877.572613368058</v>
       </c>
@@ -6423,43 +7112,52 @@
         <v>1</v>
       </c>
       <c r="I76" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>1</v>
-      </c>
-      <c r="L76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L76" s="3">
+        <v>1</v>
+      </c>
+      <c r="M76" s="3">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3">
+        <v>1</v>
+      </c>
+      <c r="O76" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="M76" s="3">
-        <v>1</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1</v>
-      </c>
-      <c r="O76" s="3" t="s">
+      <c r="P76" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>1</v>
+      </c>
+      <c r="R76" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="P76" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="3" t="s">
+      <c r="S76" s="3">
+        <v>1</v>
+      </c>
+      <c r="T76" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="R76" s="3">
-        <v>1</v>
-      </c>
-      <c r="S76" s="3">
-        <v>2</v>
-      </c>
-      <c r="T76" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>1</v>
+      </c>
+      <c r="V76" s="3">
+        <v>2</v>
+      </c>
+      <c r="W76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43877.581600624995</v>
       </c>
@@ -6482,46 +7180,55 @@
         <v>3</v>
       </c>
       <c r="H77" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
+        <v>1</v>
+      </c>
+      <c r="K77" s="3">
+        <v>3</v>
+      </c>
+      <c r="L77" s="3">
         <v>5</v>
       </c>
-      <c r="J77" s="3">
-        <v>2</v>
-      </c>
-      <c r="K77" s="3">
-        <v>1</v>
-      </c>
-      <c r="L77" s="3" t="s">
+      <c r="M77" s="3">
+        <v>2</v>
+      </c>
+      <c r="N77" s="3">
+        <v>1</v>
+      </c>
+      <c r="O77" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="M77" s="3">
-        <v>1</v>
-      </c>
-      <c r="N77" s="3">
-        <v>1</v>
-      </c>
-      <c r="O77" s="3" t="s">
+      <c r="P77" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>1</v>
+      </c>
+      <c r="R77" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="P77" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="3" t="s">
+      <c r="S77" s="3">
+        <v>1</v>
+      </c>
+      <c r="T77" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="R77" s="3">
-        <v>1</v>
-      </c>
-      <c r="S77" s="3">
-        <v>1</v>
-      </c>
-      <c r="T77" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>1</v>
+      </c>
+      <c r="V77" s="3">
+        <v>1</v>
+      </c>
+      <c r="W77" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43877.590154062498</v>
       </c>
@@ -6544,46 +7251,55 @@
         <v>3</v>
       </c>
       <c r="H78" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K78" s="3">
         <v>1</v>
       </c>
-      <c r="L78" s="3" t="s">
+      <c r="L78" s="3">
+        <v>1</v>
+      </c>
+      <c r="M78" s="3">
+        <v>3</v>
+      </c>
+      <c r="N78" s="3">
+        <v>1</v>
+      </c>
+      <c r="O78" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="M78" s="3">
-        <v>3</v>
-      </c>
-      <c r="N78" s="3">
-        <v>1</v>
-      </c>
-      <c r="O78" s="3" t="s">
+      <c r="P78" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>1</v>
+      </c>
+      <c r="R78" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="P78" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="3" t="s">
+      <c r="S78" s="3">
+        <v>1</v>
+      </c>
+      <c r="T78" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="R78" s="3">
-        <v>1</v>
-      </c>
-      <c r="S78" s="3">
-        <v>3</v>
-      </c>
-      <c r="T78" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U78" s="3">
+        <v>1</v>
+      </c>
+      <c r="V78" s="3">
+        <v>3</v>
+      </c>
+      <c r="W78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43877.592170312499</v>
       </c>
@@ -6606,46 +7322,55 @@
         <v>1</v>
       </c>
       <c r="H79" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="3">
-        <v>1</v>
-      </c>
-      <c r="L79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L79" s="3">
+        <v>1</v>
+      </c>
+      <c r="M79" s="3">
+        <v>1</v>
+      </c>
+      <c r="N79" s="3">
+        <v>1</v>
+      </c>
+      <c r="O79" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="M79" s="3">
-        <v>1</v>
-      </c>
-      <c r="N79" s="3">
-        <v>1</v>
-      </c>
-      <c r="O79" s="3" t="s">
+      <c r="P79" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>1</v>
+      </c>
+      <c r="R79" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="P79" s="3">
+      <c r="S79" s="3">
         <v>4</v>
       </c>
-      <c r="Q79" s="3" t="s">
+      <c r="T79" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="R79" s="3">
-        <v>1</v>
-      </c>
-      <c r="S79" s="3">
-        <v>3</v>
-      </c>
-      <c r="T79" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U79" s="3">
+        <v>1</v>
+      </c>
+      <c r="V79" s="3">
+        <v>3</v>
+      </c>
+      <c r="W79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43877.595169988424</v>
       </c>
@@ -6668,46 +7393,55 @@
         <v>3</v>
       </c>
       <c r="H80" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K80" s="3">
         <v>1</v>
       </c>
-      <c r="L80" s="3" t="s">
+      <c r="L80" s="3">
+        <v>1</v>
+      </c>
+      <c r="M80" s="3">
+        <v>2</v>
+      </c>
+      <c r="N80" s="3">
+        <v>1</v>
+      </c>
+      <c r="O80" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="M80" s="3">
+      <c r="P80" s="3">
         <v>5</v>
       </c>
-      <c r="N80" s="3">
-        <v>3</v>
-      </c>
-      <c r="O80" s="3" t="s">
+      <c r="Q80" s="3">
+        <v>3</v>
+      </c>
+      <c r="R80" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="P80" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="3" t="s">
+      <c r="S80" s="3">
+        <v>3</v>
+      </c>
+      <c r="T80" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="R80" s="3">
-        <v>1</v>
-      </c>
-      <c r="S80" s="3">
-        <v>1</v>
-      </c>
-      <c r="T80" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="3">
+        <v>1</v>
+      </c>
+      <c r="V80" s="3">
+        <v>1</v>
+      </c>
+      <c r="W80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43877.616879918976</v>
       </c>
@@ -6733,43 +7467,52 @@
         <v>1</v>
       </c>
       <c r="I81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>1</v>
-      </c>
-      <c r="L81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L81" s="3">
+        <v>1</v>
+      </c>
+      <c r="M81" s="3">
+        <v>1</v>
+      </c>
+      <c r="N81" s="3">
+        <v>1</v>
+      </c>
+      <c r="O81" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="M81" s="3">
-        <v>1</v>
-      </c>
-      <c r="N81" s="3">
-        <v>1</v>
-      </c>
-      <c r="O81" s="3" t="s">
+      <c r="P81" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>1</v>
+      </c>
+      <c r="R81" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>4</v>
       </c>
-      <c r="Q81" s="3" t="s">
+      <c r="T81" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="R81" s="3">
-        <v>1</v>
-      </c>
-      <c r="S81" s="3">
-        <v>3</v>
-      </c>
-      <c r="T81" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>1</v>
+      </c>
+      <c r="V81" s="3">
+        <v>3</v>
+      </c>
+      <c r="W81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43877.642783287039</v>
       </c>
@@ -6792,46 +7535,55 @@
         <v>1</v>
       </c>
       <c r="H82" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K82" s="3">
-        <v>3</v>
-      </c>
-      <c r="L82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L82" s="3">
+        <v>1</v>
+      </c>
+      <c r="M82" s="3">
+        <v>2</v>
+      </c>
+      <c r="N82" s="3">
+        <v>3</v>
+      </c>
+      <c r="O82" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="M82" s="3">
+      <c r="P82" s="3">
         <v>5</v>
       </c>
-      <c r="N82" s="3">
-        <v>3</v>
-      </c>
-      <c r="O82" s="3" t="s">
+      <c r="Q82" s="3">
+        <v>3</v>
+      </c>
+      <c r="R82" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="P82" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q82" s="3" t="s">
+      <c r="S82" s="3">
+        <v>2</v>
+      </c>
+      <c r="T82" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="R82" s="3">
-        <v>1</v>
-      </c>
-      <c r="S82" s="3">
-        <v>1</v>
-      </c>
-      <c r="T82" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3">
+        <v>1</v>
+      </c>
+      <c r="V82" s="3">
+        <v>1</v>
+      </c>
+      <c r="W82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43877.68908405093</v>
       </c>
@@ -6854,46 +7606,55 @@
         <v>1</v>
       </c>
       <c r="H83" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>1</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="L83" s="3">
+        <v>1</v>
+      </c>
+      <c r="M83" s="3">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
+        <v>1</v>
+      </c>
+      <c r="O83" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="M83" s="3">
-        <v>1</v>
-      </c>
-      <c r="N83" s="3">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
+      <c r="P83" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="P83" s="3">
+      <c r="S83" s="3">
         <v>4</v>
       </c>
-      <c r="Q83" s="3" t="s">
+      <c r="T83" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="R83" s="5">
+      <c r="U83" s="5">
         <v>5</v>
       </c>
-      <c r="S83" s="3">
-        <v>3</v>
-      </c>
-      <c r="T83" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>3</v>
+      </c>
+      <c r="W83" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>43877.705160127312</v>
       </c>
@@ -6916,46 +7677,55 @@
         <v>1</v>
       </c>
       <c r="H84" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K84" s="3">
         <v>1</v>
       </c>
-      <c r="L84" s="3" t="s">
+      <c r="L84" s="3">
+        <v>1</v>
+      </c>
+      <c r="M84" s="3">
+        <v>2</v>
+      </c>
+      <c r="N84" s="3">
+        <v>1</v>
+      </c>
+      <c r="O84" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="M84" s="3">
-        <v>1</v>
-      </c>
-      <c r="N84" s="3">
-        <v>1</v>
-      </c>
-      <c r="O84" s="3" t="s">
+      <c r="P84" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>1</v>
+      </c>
+      <c r="R84" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="P84" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="3" t="s">
+      <c r="S84" s="3">
+        <v>1</v>
+      </c>
+      <c r="T84" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="R84" s="3">
-        <v>1</v>
-      </c>
-      <c r="S84" s="3">
-        <v>1</v>
-      </c>
-      <c r="T84" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>1</v>
+      </c>
+      <c r="V84" s="3">
+        <v>1</v>
+      </c>
+      <c r="W84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>43877.746440138886</v>
       </c>
@@ -6978,25 +7748,25 @@
         <v>3</v>
       </c>
       <c r="H85" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K85" s="3">
         <v>1</v>
       </c>
-      <c r="L85" s="3" t="s">
-        <v>309</v>
+      <c r="L85" s="3">
+        <v>1</v>
       </c>
       <c r="M85" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N85" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O85" s="3" t="s">
         <v>309</v>
@@ -7004,20 +7774,29 @@
       <c r="P85" s="3">
         <v>1</v>
       </c>
-      <c r="Q85" s="3" t="s">
+      <c r="Q85" s="3">
+        <v>3</v>
+      </c>
+      <c r="R85" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="R85" s="5">
+      <c r="S85" s="3">
+        <v>1</v>
+      </c>
+      <c r="T85" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="U85" s="5">
         <v>5</v>
       </c>
-      <c r="S85" s="3">
-        <v>3</v>
-      </c>
-      <c r="T85" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>3</v>
+      </c>
+      <c r="W85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>43877.749814560186</v>
       </c>
@@ -7040,46 +7819,55 @@
         <v>3</v>
       </c>
       <c r="H86" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" s="3">
         <v>1</v>
       </c>
       <c r="K86" s="3">
-        <v>3</v>
-      </c>
-      <c r="L86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L86" s="3">
+        <v>1</v>
+      </c>
+      <c r="M86" s="3">
+        <v>1</v>
+      </c>
+      <c r="N86" s="3">
+        <v>3</v>
+      </c>
+      <c r="O86" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="M86" s="3">
-        <v>1</v>
-      </c>
-      <c r="N86" s="3">
-        <v>3</v>
-      </c>
-      <c r="O86" s="3" t="s">
+      <c r="P86" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>3</v>
+      </c>
+      <c r="R86" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="P86" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q86" s="3" t="s">
+      <c r="S86" s="3">
+        <v>1</v>
+      </c>
+      <c r="T86" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="R86" s="3">
+      <c r="U86" s="3">
         <v>4</v>
       </c>
-      <c r="S86" s="3">
-        <v>1</v>
-      </c>
-      <c r="T86" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="153" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>1</v>
+      </c>
+      <c r="W86" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>43877.75022037037</v>
       </c>
@@ -7105,43 +7893,52 @@
         <v>1</v>
       </c>
       <c r="I87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K87" s="3">
-        <v>1</v>
-      </c>
-      <c r="L87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L87" s="3">
+        <v>1</v>
+      </c>
+      <c r="M87" s="3">
+        <v>2</v>
+      </c>
+      <c r="N87" s="3">
+        <v>1</v>
+      </c>
+      <c r="O87" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="M87" s="3">
+      <c r="P87" s="3">
         <v>5</v>
       </c>
-      <c r="N87" s="3">
-        <v>2</v>
-      </c>
-      <c r="O87" s="4" t="s">
+      <c r="Q87" s="3">
+        <v>2</v>
+      </c>
+      <c r="R87" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="P87" s="3">
+      <c r="S87" s="3">
         <v>4</v>
       </c>
-      <c r="Q87" s="3" t="s">
+      <c r="T87" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="R87" s="3">
+      <c r="U87" s="3">
         <v>4</v>
       </c>
-      <c r="S87" s="3">
-        <v>1</v>
-      </c>
-      <c r="T87" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>1</v>
+      </c>
+      <c r="W87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>43877.753969224534</v>
       </c>
@@ -7167,43 +7964,52 @@
         <v>1</v>
       </c>
       <c r="I88" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" s="3">
-        <v>1</v>
-      </c>
-      <c r="L88" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L88" s="3">
+        <v>3</v>
+      </c>
+      <c r="M88" s="3">
+        <v>1</v>
+      </c>
+      <c r="N88" s="3">
+        <v>1</v>
+      </c>
+      <c r="O88" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="M88" s="3">
-        <v>1</v>
-      </c>
-      <c r="N88" s="3">
-        <v>2</v>
-      </c>
-      <c r="O88" s="3" t="s">
+      <c r="P88" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>2</v>
+      </c>
+      <c r="R88" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="P88" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q88" s="3" t="s">
+      <c r="S88" s="3">
+        <v>1</v>
+      </c>
+      <c r="T88" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="R88" s="3">
+      <c r="U88" s="3">
         <v>4</v>
       </c>
-      <c r="S88" s="3">
-        <v>1</v>
-      </c>
-      <c r="T88" s="3">
+      <c r="V88" s="3">
+        <v>1</v>
+      </c>
+      <c r="W88" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>43877.755199849533</v>
       </c>
@@ -7229,43 +8035,52 @@
         <v>1</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>2</v>
+      </c>
+      <c r="L89" s="3">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
-        <v>2</v>
-      </c>
-      <c r="K89" s="3">
-        <v>1</v>
-      </c>
-      <c r="L89" s="3" t="s">
+      <c r="M89" s="3">
+        <v>2</v>
+      </c>
+      <c r="N89" s="3">
+        <v>1</v>
+      </c>
+      <c r="O89" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="M89" s="3">
-        <v>1</v>
-      </c>
-      <c r="N89" s="3">
-        <v>1</v>
-      </c>
-      <c r="O89" s="3" t="s">
+      <c r="P89" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>1</v>
+      </c>
+      <c r="R89" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="P89" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
+      <c r="S89" s="3">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="R89" s="3">
-        <v>1</v>
-      </c>
-      <c r="S89" s="3">
-        <v>1</v>
-      </c>
-      <c r="T89" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>1</v>
+      </c>
+      <c r="V89" s="3">
+        <v>1</v>
+      </c>
+      <c r="W89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>43877.758002106479</v>
       </c>
@@ -7288,46 +8103,55 @@
         <v>3</v>
       </c>
       <c r="H90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" s="3">
         <v>1</v>
       </c>
       <c r="K90" s="3">
-        <v>1</v>
-      </c>
-      <c r="L90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L90" s="3">
+        <v>1</v>
+      </c>
+      <c r="M90" s="3">
+        <v>1</v>
+      </c>
+      <c r="N90" s="3">
+        <v>1</v>
+      </c>
+      <c r="O90" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="M90" s="3">
-        <v>1</v>
-      </c>
-      <c r="N90" s="3">
-        <v>3</v>
-      </c>
-      <c r="O90" s="3" t="s">
+      <c r="P90" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>3</v>
+      </c>
+      <c r="R90" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="P90" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q90" s="3" t="s">
+      <c r="S90" s="3">
+        <v>1</v>
+      </c>
+      <c r="T90" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="R90" s="3">
+      <c r="U90" s="3">
         <v>7</v>
       </c>
-      <c r="S90" s="3">
-        <v>2</v>
-      </c>
-      <c r="T90" s="3">
+      <c r="V90" s="3">
+        <v>2</v>
+      </c>
+      <c r="W90" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>43877.760387453702</v>
       </c>
@@ -7353,43 +8177,52 @@
         <v>1</v>
       </c>
       <c r="I91" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>1</v>
-      </c>
-      <c r="L91" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L91" s="3">
+        <v>1</v>
+      </c>
+      <c r="M91" s="3">
+        <v>2</v>
+      </c>
+      <c r="N91" s="3">
+        <v>1</v>
+      </c>
+      <c r="O91" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="M91" s="3">
-        <v>1</v>
-      </c>
-      <c r="N91" s="3">
-        <v>1</v>
-      </c>
-      <c r="O91" s="3" t="s">
+      <c r="P91" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>1</v>
+      </c>
+      <c r="R91" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="P91" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
+      <c r="S91" s="3">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="R91" s="3">
-        <v>1</v>
-      </c>
-      <c r="S91" s="3">
-        <v>1</v>
-      </c>
-      <c r="T91" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>1</v>
+      </c>
+      <c r="V91" s="3">
+        <v>1</v>
+      </c>
+      <c r="W91" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>43877.760501608791</v>
       </c>
@@ -7412,46 +8245,55 @@
         <v>3</v>
       </c>
       <c r="H92" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" s="3">
         <v>1</v>
       </c>
       <c r="K92" s="3">
-        <v>3</v>
-      </c>
-      <c r="L92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L92" s="3">
+        <v>3</v>
+      </c>
+      <c r="M92" s="3">
+        <v>1</v>
+      </c>
+      <c r="N92" s="3">
+        <v>3</v>
+      </c>
+      <c r="O92" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="M92" s="3">
-        <v>1</v>
-      </c>
-      <c r="N92" s="3">
-        <v>1</v>
-      </c>
-      <c r="O92" s="3" t="s">
+      <c r="P92" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>1</v>
+      </c>
+      <c r="R92" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="P92" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q92" s="3" t="s">
+      <c r="S92" s="3">
+        <v>1</v>
+      </c>
+      <c r="T92" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="R92" s="3">
-        <v>1</v>
-      </c>
-      <c r="S92" s="3">
-        <v>3</v>
-      </c>
-      <c r="T92" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>1</v>
+      </c>
+      <c r="V92" s="3">
+        <v>3</v>
+      </c>
+      <c r="W92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>43877.766398518521</v>
       </c>
@@ -7477,43 +8319,52 @@
         <v>1</v>
       </c>
       <c r="I93" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K93" s="3">
-        <v>1</v>
-      </c>
-      <c r="L93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L93" s="3">
+        <v>1</v>
+      </c>
+      <c r="M93" s="3">
+        <v>2</v>
+      </c>
+      <c r="N93" s="3">
+        <v>1</v>
+      </c>
+      <c r="O93" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="M93" s="3">
-        <v>1</v>
-      </c>
-      <c r="N93" s="3">
-        <v>1</v>
-      </c>
-      <c r="O93" s="3" t="s">
+      <c r="P93" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>1</v>
+      </c>
+      <c r="R93" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="P93" s="3">
+      <c r="S93" s="3">
         <v>5</v>
       </c>
-      <c r="Q93" s="3" t="s">
+      <c r="T93" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="R93" s="3">
-        <v>1</v>
-      </c>
-      <c r="S93" s="3">
-        <v>1</v>
-      </c>
-      <c r="T93" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>1</v>
+      </c>
+      <c r="V93" s="3">
+        <v>1</v>
+      </c>
+      <c r="W93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>43877.770342662036</v>
       </c>
@@ -7539,43 +8390,52 @@
         <v>1</v>
       </c>
       <c r="I94" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>1</v>
-      </c>
-      <c r="L94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L94" s="3">
+        <v>1</v>
+      </c>
+      <c r="M94" s="3">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
+        <v>1</v>
+      </c>
+      <c r="O94" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="M94" s="3">
-        <v>1</v>
-      </c>
-      <c r="N94" s="3">
-        <v>1</v>
-      </c>
-      <c r="O94" s="3" t="s">
+      <c r="P94" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>1</v>
+      </c>
+      <c r="R94" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>4</v>
       </c>
-      <c r="Q94" s="3" t="s">
+      <c r="T94" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="R94" s="3">
-        <v>1</v>
-      </c>
-      <c r="S94" s="3">
-        <v>1</v>
-      </c>
-      <c r="T94" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>1</v>
+      </c>
+      <c r="V94" s="3">
+        <v>1</v>
+      </c>
+      <c r="W94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>43877.770812731484</v>
       </c>
@@ -7598,46 +8458,55 @@
         <v>1</v>
       </c>
       <c r="H95" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K95" s="3">
         <v>1</v>
       </c>
-      <c r="L95" s="3" t="s">
+      <c r="L95" s="3">
+        <v>1</v>
+      </c>
+      <c r="M95" s="3">
+        <v>2</v>
+      </c>
+      <c r="N95" s="3">
+        <v>1</v>
+      </c>
+      <c r="O95" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="M95" s="3">
-        <v>1</v>
-      </c>
-      <c r="N95" s="3">
-        <v>2</v>
-      </c>
-      <c r="O95" s="3" t="s">
+      <c r="P95" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>2</v>
+      </c>
+      <c r="R95" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P95" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q95" s="3" t="s">
+      <c r="S95" s="3">
+        <v>1</v>
+      </c>
+      <c r="T95" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="R95" s="3">
-        <v>1</v>
-      </c>
-      <c r="S95" s="3">
-        <v>1</v>
-      </c>
-      <c r="T95" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3">
+        <v>1</v>
+      </c>
+      <c r="V95" s="3">
+        <v>1</v>
+      </c>
+      <c r="W95" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>43877.775115497687</v>
       </c>
@@ -7660,46 +8529,55 @@
         <v>1</v>
       </c>
       <c r="H96" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>1</v>
+      </c>
+      <c r="L96" s="3">
         <v>5</v>
       </c>
-      <c r="J96" s="3">
-        <v>2</v>
-      </c>
-      <c r="K96" s="3">
-        <v>1</v>
-      </c>
-      <c r="L96" s="3" t="s">
+      <c r="M96" s="3">
+        <v>2</v>
+      </c>
+      <c r="N96" s="3">
+        <v>1</v>
+      </c>
+      <c r="O96" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M96" s="3">
-        <v>1</v>
-      </c>
-      <c r="N96" s="3">
-        <v>1</v>
-      </c>
-      <c r="O96" s="3" t="s">
+      <c r="P96" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>1</v>
+      </c>
+      <c r="R96" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="P96" s="3">
+      <c r="S96" s="3">
         <v>4</v>
       </c>
-      <c r="Q96" s="3" t="s">
+      <c r="T96" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="R96" s="3">
-        <v>3</v>
-      </c>
-      <c r="S96" s="3">
-        <v>1</v>
-      </c>
-      <c r="T96" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>3</v>
+      </c>
+      <c r="V96" s="3">
+        <v>1</v>
+      </c>
+      <c r="W96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>43877.776608009255</v>
       </c>
@@ -7725,43 +8603,52 @@
         <v>1</v>
       </c>
       <c r="I97" s="3">
+        <v>0</v>
+      </c>
+      <c r="J97" s="3">
+        <v>0</v>
+      </c>
+      <c r="K97" s="3">
+        <v>2</v>
+      </c>
+      <c r="L97" s="3">
         <v>4</v>
       </c>
-      <c r="J97" s="3">
-        <v>3</v>
-      </c>
-      <c r="K97" s="3">
-        <v>3</v>
-      </c>
-      <c r="L97" s="5" t="s">
+      <c r="M97" s="3">
+        <v>3</v>
+      </c>
+      <c r="N97" s="3">
+        <v>3</v>
+      </c>
+      <c r="O97" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="M97" s="5">
+      <c r="P97" s="5">
         <v>5</v>
       </c>
-      <c r="N97" s="3">
-        <v>3</v>
-      </c>
-      <c r="O97" s="3" t="s">
+      <c r="Q97" s="3">
+        <v>3</v>
+      </c>
+      <c r="R97" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="P97" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q97" s="3" t="s">
+      <c r="S97" s="3">
+        <v>3</v>
+      </c>
+      <c r="T97" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="R97" s="5">
+      <c r="U97" s="5">
         <v>5</v>
       </c>
-      <c r="S97" s="3">
-        <v>1</v>
-      </c>
-      <c r="T97" s="5">
+      <c r="V97" s="3">
+        <v>1</v>
+      </c>
+      <c r="W97" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>43877.782664675928</v>
       </c>
@@ -7784,46 +8671,55 @@
         <v>2</v>
       </c>
       <c r="H98" s="3">
-        <v>1</v>
-      </c>
-      <c r="I98" s="7">
+        <v>0</v>
+      </c>
+      <c r="I98" s="3">
         <v>1</v>
       </c>
       <c r="J98" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="3">
-        <v>3</v>
-      </c>
-      <c r="L98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L98" s="7">
+        <v>1</v>
+      </c>
+      <c r="M98" s="3">
+        <v>1</v>
+      </c>
+      <c r="N98" s="3">
+        <v>3</v>
+      </c>
+      <c r="O98" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="M98" s="3">
-        <v>2</v>
-      </c>
-      <c r="N98" s="3">
-        <v>3</v>
-      </c>
-      <c r="O98" s="3" t="s">
+      <c r="P98" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>3</v>
+      </c>
+      <c r="R98" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="P98" s="3">
+      <c r="S98" s="3">
         <v>5</v>
       </c>
-      <c r="Q98" s="3" t="s">
+      <c r="T98" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="R98" s="3">
-        <v>1</v>
-      </c>
-      <c r="S98" s="3">
-        <v>2</v>
-      </c>
-      <c r="T98" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>1</v>
+      </c>
+      <c r="V98" s="3">
+        <v>2</v>
+      </c>
+      <c r="W98" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>43877.786641840277</v>
       </c>
@@ -7849,43 +8745,52 @@
         <v>1</v>
       </c>
       <c r="I99" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K99" s="3">
-        <v>1</v>
-      </c>
-      <c r="L99" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L99" s="3">
+        <v>1</v>
+      </c>
+      <c r="M99" s="3">
+        <v>2</v>
+      </c>
+      <c r="N99" s="3">
+        <v>1</v>
+      </c>
+      <c r="O99" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="M99" s="3">
-        <v>5</v>
-      </c>
-      <c r="N99" s="3">
-        <v>3</v>
-      </c>
-      <c r="O99" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="P99" s="3">
         <v>5</v>
       </c>
-      <c r="Q99" s="3" t="s">
+      <c r="Q99" s="3">
+        <v>3</v>
+      </c>
+      <c r="R99" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="S99" s="3">
+        <v>5</v>
+      </c>
+      <c r="T99" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="R99" s="3">
-        <v>1</v>
-      </c>
-      <c r="S99" s="3">
-        <v>1</v>
-      </c>
-      <c r="T99" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>1</v>
+      </c>
+      <c r="V99" s="3">
+        <v>1</v>
+      </c>
+      <c r="W99" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>43877.813371678239</v>
       </c>
@@ -7911,43 +8816,52 @@
         <v>1</v>
       </c>
       <c r="I100" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>1</v>
-      </c>
-      <c r="L100" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L100" s="3">
+        <v>1</v>
+      </c>
+      <c r="M100" s="3">
+        <v>1</v>
+      </c>
+      <c r="N100" s="3">
+        <v>1</v>
+      </c>
+      <c r="O100" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="M100" s="3">
-        <v>1</v>
-      </c>
-      <c r="N100" s="3">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
+      <c r="P100" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="P100" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q100" s="3" t="s">
+      <c r="S100" s="3">
+        <v>2</v>
+      </c>
+      <c r="T100" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="R100" s="3">
-        <v>1</v>
-      </c>
-      <c r="S100" s="3">
-        <v>1</v>
-      </c>
-      <c r="T100" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>1</v>
+      </c>
+      <c r="V100" s="3">
+        <v>1</v>
+      </c>
+      <c r="W100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>43877.818139224539</v>
       </c>
@@ -7973,43 +8887,52 @@
         <v>1</v>
       </c>
       <c r="I101" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>1</v>
-      </c>
-      <c r="L101" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L101" s="3">
+        <v>1</v>
+      </c>
+      <c r="M101" s="3">
+        <v>1</v>
+      </c>
+      <c r="N101" s="3">
+        <v>1</v>
+      </c>
+      <c r="O101" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="M101" s="3">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
-        <v>1</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>365</v>
       </c>
       <c r="P101" s="3">
         <v>5</v>
       </c>
-      <c r="Q101" s="3" t="s">
+      <c r="Q101" s="3">
+        <v>1</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="S101" s="3">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="R101" s="3">
-        <v>1</v>
-      </c>
-      <c r="S101" s="3">
-        <v>1</v>
-      </c>
-      <c r="T101" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>1</v>
+      </c>
+      <c r="V101" s="3">
+        <v>1</v>
+      </c>
+      <c r="W101" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>43877.824139907403</v>
       </c>
@@ -8035,43 +8958,52 @@
         <v>1</v>
       </c>
       <c r="I102" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>1</v>
-      </c>
-      <c r="L102" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L102" s="3">
+        <v>1</v>
+      </c>
+      <c r="M102" s="3">
+        <v>1</v>
+      </c>
+      <c r="N102" s="3">
+        <v>1</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="M102" s="3">
-        <v>1</v>
-      </c>
-      <c r="N102" s="3">
-        <v>1</v>
-      </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>1</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="P102" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q102" s="3" t="s">
+      <c r="S102" s="3">
+        <v>1</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="R102" s="3">
-        <v>3</v>
-      </c>
-      <c r="S102" s="3">
-        <v>3</v>
-      </c>
-      <c r="T102" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U102" s="3">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>43877.833611851849</v>
       </c>
@@ -8094,46 +9026,55 @@
         <v>3</v>
       </c>
       <c r="H103" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" s="3">
         <v>1</v>
       </c>
       <c r="K103" s="3">
-        <v>3</v>
-      </c>
-      <c r="L103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L103" s="3">
+        <v>1</v>
+      </c>
+      <c r="M103" s="3">
+        <v>1</v>
+      </c>
+      <c r="N103" s="3">
+        <v>3</v>
+      </c>
+      <c r="O103" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="M103" s="3">
-        <v>1</v>
-      </c>
-      <c r="N103" s="3">
-        <v>3</v>
-      </c>
-      <c r="O103" s="3" t="s">
+      <c r="P103" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="3">
+        <v>3</v>
+      </c>
+      <c r="R103" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="P103" s="3">
+      <c r="S103" s="3">
         <v>5</v>
       </c>
-      <c r="Q103" s="3" t="s">
+      <c r="T103" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="R103" s="3">
-        <v>1</v>
-      </c>
-      <c r="S103" s="3">
-        <v>1</v>
-      </c>
-      <c r="T103" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U103" s="3">
+        <v>1</v>
+      </c>
+      <c r="V103" s="3">
+        <v>1</v>
+      </c>
+      <c r="W103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>43877.83633770833</v>
       </c>
@@ -8155,47 +9096,56 @@
       <c r="G104" s="3">
         <v>3</v>
       </c>
-      <c r="H104" s="5">
-        <v>3</v>
-      </c>
-      <c r="I104" s="5">
+      <c r="H104" s="3">
+        <v>0</v>
+      </c>
+      <c r="I104" s="3">
+        <v>0</v>
+      </c>
+      <c r="J104" s="3">
+        <v>1</v>
+      </c>
+      <c r="K104" s="3">
+        <v>1</v>
+      </c>
+      <c r="L104" s="5">
         <v>5</v>
       </c>
-      <c r="J104" s="3">
-        <v>2</v>
-      </c>
-      <c r="K104" s="3">
-        <v>3</v>
-      </c>
-      <c r="L104" s="3" t="s">
+      <c r="M104" s="3">
+        <v>2</v>
+      </c>
+      <c r="N104" s="3">
+        <v>3</v>
+      </c>
+      <c r="O104" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="M104" s="3">
-        <v>1</v>
-      </c>
-      <c r="N104" s="3">
-        <v>1</v>
-      </c>
-      <c r="O104" s="3" t="s">
+      <c r="P104" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>1</v>
+      </c>
+      <c r="R104" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="P104" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q104" s="3" t="s">
+      <c r="S104" s="3">
+        <v>1</v>
+      </c>
+      <c r="T104" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="R104" s="3">
+      <c r="U104" s="3">
         <v>4</v>
       </c>
-      <c r="S104" s="3">
-        <v>1</v>
-      </c>
-      <c r="T104" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V104" s="3">
+        <v>1</v>
+      </c>
+      <c r="W104" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>43877.839584988425</v>
       </c>
@@ -8218,46 +9168,55 @@
         <v>2</v>
       </c>
       <c r="H105" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" s="3">
         <v>1</v>
       </c>
       <c r="J105" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K105" s="3">
-        <v>3</v>
-      </c>
-      <c r="L105" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L105" s="3">
+        <v>1</v>
+      </c>
+      <c r="M105" s="3">
+        <v>3</v>
+      </c>
+      <c r="N105" s="3">
+        <v>3</v>
+      </c>
+      <c r="O105" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="M105" s="3">
-        <v>1</v>
-      </c>
-      <c r="N105" s="3">
-        <v>3</v>
-      </c>
-      <c r="O105" s="3" t="s">
+      <c r="P105" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>3</v>
+      </c>
+      <c r="R105" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="P105" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q105" s="3" t="s">
+      <c r="S105" s="3">
+        <v>1</v>
+      </c>
+      <c r="T105" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="R105" s="3">
+      <c r="U105" s="3">
         <v>4</v>
       </c>
-      <c r="S105" s="3">
-        <v>1</v>
-      </c>
-      <c r="T105" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V105" s="3">
+        <v>1</v>
+      </c>
+      <c r="W105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>43877.848552384261</v>
       </c>
@@ -8283,43 +9242,52 @@
         <v>1</v>
       </c>
       <c r="I106" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J106" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K106" s="3">
-        <v>1</v>
-      </c>
-      <c r="L106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L106" s="3">
+        <v>3</v>
+      </c>
+      <c r="M106" s="3">
+        <v>2</v>
+      </c>
+      <c r="N106" s="3">
+        <v>1</v>
+      </c>
+      <c r="O106" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="M106" s="3">
-        <v>1</v>
-      </c>
-      <c r="N106" s="3">
-        <v>1</v>
-      </c>
-      <c r="O106" s="3" t="s">
+      <c r="P106" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="3">
+        <v>1</v>
+      </c>
+      <c r="R106" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="P106" s="5">
+      <c r="S106" s="5">
         <v>4</v>
       </c>
-      <c r="Q106" s="3" t="s">
+      <c r="T106" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="R106" s="3">
-        <v>1</v>
-      </c>
-      <c r="S106" s="3">
-        <v>3</v>
-      </c>
-      <c r="T106" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U106" s="3">
+        <v>1</v>
+      </c>
+      <c r="V106" s="3">
+        <v>3</v>
+      </c>
+      <c r="W106" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>43877.870131527779</v>
       </c>
@@ -8342,46 +9310,55 @@
         <v>3</v>
       </c>
       <c r="H107" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K107" s="3">
-        <v>1</v>
-      </c>
-      <c r="L107" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L107" s="3">
+        <v>1</v>
+      </c>
+      <c r="M107" s="3">
+        <v>2</v>
+      </c>
+      <c r="N107" s="3">
+        <v>1</v>
+      </c>
+      <c r="O107" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M107" s="3">
-        <v>1</v>
-      </c>
-      <c r="N107" s="3">
-        <v>3</v>
-      </c>
-      <c r="O107" s="3" t="s">
+      <c r="P107" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="3">
+        <v>3</v>
+      </c>
+      <c r="R107" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="P107" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q107" s="3" t="s">
+      <c r="S107" s="3">
+        <v>1</v>
+      </c>
+      <c r="T107" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="R107" s="3">
-        <v>1</v>
-      </c>
-      <c r="S107" s="3">
-        <v>1</v>
-      </c>
-      <c r="T107" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U107" s="3">
+        <v>1</v>
+      </c>
+      <c r="V107" s="3">
+        <v>1</v>
+      </c>
+      <c r="W107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>43877.903879363424</v>
       </c>
@@ -8407,43 +9384,52 @@
         <v>1</v>
       </c>
       <c r="I108" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K108" s="3">
-        <v>1</v>
-      </c>
-      <c r="L108" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L108" s="3">
+        <v>1</v>
+      </c>
+      <c r="M108" s="3">
+        <v>2</v>
+      </c>
+      <c r="N108" s="3">
+        <v>1</v>
+      </c>
+      <c r="O108" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="M108" s="3">
+      <c r="P108" s="3">
         <v>5</v>
       </c>
-      <c r="N108" s="3">
-        <v>3</v>
-      </c>
-      <c r="O108" s="3" t="s">
+      <c r="Q108" s="3">
+        <v>3</v>
+      </c>
+      <c r="R108" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="P108" s="3">
+      <c r="S108" s="3">
         <v>4</v>
       </c>
-      <c r="Q108" s="3" t="s">
+      <c r="T108" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="R108" s="3">
+      <c r="U108" s="3">
         <v>4</v>
       </c>
-      <c r="S108" s="3">
-        <v>1</v>
-      </c>
-      <c r="T108" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V108" s="3">
+        <v>1</v>
+      </c>
+      <c r="W108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>43877.908325162032</v>
       </c>
@@ -8469,43 +9455,52 @@
         <v>1</v>
       </c>
       <c r="I109" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K109" s="3">
-        <v>1</v>
-      </c>
-      <c r="L109" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L109" s="3">
+        <v>1</v>
+      </c>
+      <c r="M109" s="3">
+        <v>2</v>
+      </c>
+      <c r="N109" s="3">
+        <v>1</v>
+      </c>
+      <c r="O109" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="M109" s="3">
-        <v>1</v>
-      </c>
-      <c r="N109" s="3">
-        <v>1</v>
-      </c>
-      <c r="O109" s="5" t="s">
+      <c r="P109" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="3">
+        <v>1</v>
+      </c>
+      <c r="R109" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="P109" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q109" s="3" t="s">
+      <c r="S109" s="3">
+        <v>1</v>
+      </c>
+      <c r="T109" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="R109" s="3">
-        <v>1</v>
-      </c>
-      <c r="S109" s="3">
-        <v>1</v>
-      </c>
-      <c r="T109" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U109" s="3">
+        <v>1</v>
+      </c>
+      <c r="V109" s="3">
+        <v>1</v>
+      </c>
+      <c r="W109" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>43877.927599351853</v>
       </c>
@@ -8528,46 +9523,55 @@
         <v>3</v>
       </c>
       <c r="H110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K110" s="3">
-        <v>1</v>
-      </c>
-      <c r="L110" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L110" s="3">
+        <v>1</v>
+      </c>
+      <c r="M110" s="3">
+        <v>2</v>
+      </c>
+      <c r="N110" s="3">
+        <v>1</v>
+      </c>
+      <c r="O110" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="M110" s="3">
-        <v>1</v>
-      </c>
-      <c r="N110" s="3">
-        <v>2</v>
-      </c>
-      <c r="O110" s="3" t="s">
+      <c r="P110" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>2</v>
+      </c>
+      <c r="R110" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="P110" s="3">
+      <c r="S110" s="3">
         <v>5</v>
       </c>
-      <c r="Q110" s="3" t="s">
+      <c r="T110" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R110" s="3">
+      <c r="U110" s="3">
         <v>4</v>
       </c>
-      <c r="S110" s="3">
-        <v>1</v>
-      </c>
-      <c r="T110" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V110" s="3">
+        <v>1</v>
+      </c>
+      <c r="W110" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>43877.942724143519</v>
       </c>
@@ -8592,44 +9596,53 @@
       <c r="H111" s="3">
         <v>1</v>
       </c>
-      <c r="I111" s="5">
+      <c r="I111" s="3">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3">
+        <v>0</v>
+      </c>
+      <c r="K111" s="3">
+        <v>2</v>
+      </c>
+      <c r="L111" s="5">
         <v>6</v>
       </c>
-      <c r="J111" s="3">
-        <v>1</v>
-      </c>
-      <c r="K111" s="3">
-        <v>1</v>
-      </c>
-      <c r="L111" s="3" t="s">
+      <c r="M111" s="3">
+        <v>1</v>
+      </c>
+      <c r="N111" s="3">
+        <v>1</v>
+      </c>
+      <c r="O111" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="M111" s="3">
+      <c r="P111" s="3">
         <v>5</v>
       </c>
-      <c r="N111" s="3">
-        <v>1</v>
-      </c>
-      <c r="O111" s="3" t="s">
+      <c r="Q111" s="3">
+        <v>1</v>
+      </c>
+      <c r="R111" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="P111" s="3">
+      <c r="S111" s="3">
         <v>4</v>
       </c>
-      <c r="Q111" s="3" t="s">
+      <c r="T111" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="R111" s="5">
-        <v>3</v>
-      </c>
-      <c r="S111" s="3">
-        <v>1</v>
-      </c>
-      <c r="T111" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U111" s="5">
+        <v>3</v>
+      </c>
+      <c r="V111" s="3">
+        <v>1</v>
+      </c>
+      <c r="W111" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>43877.945839236112</v>
       </c>
@@ -8652,46 +9665,55 @@
         <v>1</v>
       </c>
       <c r="H112" s="3">
-        <v>3</v>
-      </c>
-      <c r="I112" s="5">
+        <v>1</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0</v>
+      </c>
+      <c r="J112" s="3">
+        <v>0</v>
+      </c>
+      <c r="K112" s="3">
+        <v>1</v>
+      </c>
+      <c r="L112" s="5">
         <v>7</v>
       </c>
-      <c r="J112" s="3">
-        <v>2</v>
-      </c>
-      <c r="K112" s="3">
-        <v>1</v>
-      </c>
-      <c r="L112" s="3" t="s">
+      <c r="M112" s="3">
+        <v>2</v>
+      </c>
+      <c r="N112" s="3">
+        <v>1</v>
+      </c>
+      <c r="O112" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="M112" s="3">
-        <v>1</v>
-      </c>
-      <c r="N112" s="3">
-        <v>3</v>
-      </c>
-      <c r="O112" s="3" t="s">
+      <c r="P112" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>3</v>
+      </c>
+      <c r="R112" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="P112" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q112" s="3" t="s">
+      <c r="S112" s="3">
+        <v>3</v>
+      </c>
+      <c r="T112" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="R112" s="3">
+      <c r="U112" s="3">
         <v>7</v>
       </c>
-      <c r="S112" s="3">
-        <v>1</v>
-      </c>
-      <c r="T112" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V112" s="3">
+        <v>1</v>
+      </c>
+      <c r="W112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>43877.994995787041</v>
       </c>
@@ -8717,43 +9739,52 @@
         <v>1</v>
       </c>
       <c r="I113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K113" s="3">
-        <v>1</v>
-      </c>
-      <c r="L113" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L113" s="3">
+        <v>1</v>
+      </c>
+      <c r="M113" s="3">
+        <v>2</v>
+      </c>
+      <c r="N113" s="3">
+        <v>1</v>
+      </c>
+      <c r="O113" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="M113" s="3">
-        <v>1</v>
-      </c>
-      <c r="N113" s="3">
-        <v>1</v>
-      </c>
-      <c r="O113" s="3" t="s">
+      <c r="P113" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="3">
+        <v>1</v>
+      </c>
+      <c r="R113" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="P113" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q113" s="3" t="s">
+      <c r="S113" s="3">
+        <v>1</v>
+      </c>
+      <c r="T113" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="R113" s="5">
+      <c r="U113" s="5">
         <v>4</v>
       </c>
-      <c r="S113" s="3">
-        <v>1</v>
-      </c>
-      <c r="T113" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V113" s="3">
+        <v>1</v>
+      </c>
+      <c r="W113" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>43878.302412418983</v>
       </c>
@@ -8776,46 +9807,55 @@
         <v>1</v>
       </c>
       <c r="H114" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K114" s="3">
         <v>1</v>
       </c>
-      <c r="L114" s="3" t="s">
+      <c r="L114" s="3">
+        <v>1</v>
+      </c>
+      <c r="M114" s="3">
+        <v>2</v>
+      </c>
+      <c r="N114" s="3">
+        <v>1</v>
+      </c>
+      <c r="O114" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="M114" s="3">
-        <v>1</v>
-      </c>
-      <c r="N114" s="3">
-        <v>3</v>
-      </c>
-      <c r="O114" s="5" t="s">
+      <c r="P114" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="3">
+        <v>3</v>
+      </c>
+      <c r="R114" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="P114" s="3">
+      <c r="S114" s="3">
         <v>5</v>
       </c>
-      <c r="Q114" s="3" t="s">
+      <c r="T114" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="R114" s="3">
-        <v>1</v>
-      </c>
-      <c r="S114" s="3">
-        <v>1</v>
-      </c>
-      <c r="T114" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U114" s="3">
+        <v>1</v>
+      </c>
+      <c r="V114" s="3">
+        <v>1</v>
+      </c>
+      <c r="W114" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>43878.355503599538</v>
       </c>
@@ -8841,43 +9881,52 @@
         <v>1</v>
       </c>
       <c r="I115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" s="3">
-        <v>1</v>
-      </c>
-      <c r="L115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L115" s="3">
+        <v>1</v>
+      </c>
+      <c r="M115" s="3">
+        <v>1</v>
+      </c>
+      <c r="N115" s="3">
+        <v>1</v>
+      </c>
+      <c r="O115" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="M115" s="3">
-        <v>1</v>
-      </c>
-      <c r="N115" s="3">
-        <v>1</v>
-      </c>
-      <c r="O115" s="5" t="s">
+      <c r="P115" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="3">
+        <v>1</v>
+      </c>
+      <c r="R115" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="P115" s="3">
+      <c r="S115" s="3">
         <v>5</v>
       </c>
-      <c r="Q115" s="3" t="s">
+      <c r="T115" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="R115" s="3">
-        <v>1</v>
-      </c>
-      <c r="S115" s="3">
-        <v>1</v>
-      </c>
-      <c r="T115" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U115" s="3">
+        <v>1</v>
+      </c>
+      <c r="V115" s="3">
+        <v>1</v>
+      </c>
+      <c r="W115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>43879.063138518519</v>
       </c>
@@ -8900,46 +9949,55 @@
         <v>1</v>
       </c>
       <c r="H116" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I116" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116" s="3">
         <v>1</v>
       </c>
-      <c r="L116" s="3" t="s">
+      <c r="L116" s="3">
+        <v>1</v>
+      </c>
+      <c r="M116" s="3">
+        <v>1</v>
+      </c>
+      <c r="N116" s="3">
+        <v>1</v>
+      </c>
+      <c r="O116" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="M116" s="3">
-        <v>1</v>
-      </c>
-      <c r="N116" s="3">
-        <v>1</v>
-      </c>
-      <c r="O116" s="5" t="s">
+      <c r="P116" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="3">
+        <v>1</v>
+      </c>
+      <c r="R116" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="P116" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q116" s="3" t="s">
+      <c r="S116" s="3">
+        <v>3</v>
+      </c>
+      <c r="T116" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="R116" s="3">
+      <c r="U116" s="3">
         <v>4</v>
       </c>
-      <c r="S116" s="3">
-        <v>1</v>
-      </c>
-      <c r="T116" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V116" s="3">
+        <v>1</v>
+      </c>
+      <c r="W116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>43879.837522835645</v>
       </c>
@@ -8964,44 +10022,53 @@
       <c r="H117" s="3">
         <v>1</v>
       </c>
-      <c r="I117" s="5">
-        <v>3</v>
+      <c r="I117" s="3">
+        <v>0</v>
       </c>
       <c r="J117" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K117" s="3">
-        <v>1</v>
-      </c>
-      <c r="L117" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L117" s="5">
+        <v>3</v>
+      </c>
+      <c r="M117" s="3">
+        <v>2</v>
+      </c>
+      <c r="N117" s="3">
+        <v>1</v>
+      </c>
+      <c r="O117" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="M117" s="3">
-        <v>1</v>
-      </c>
-      <c r="N117" s="3">
-        <v>2</v>
-      </c>
-      <c r="O117" s="5" t="s">
+      <c r="P117" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="3">
+        <v>2</v>
+      </c>
+      <c r="R117" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="P117" s="3">
+      <c r="S117" s="3">
         <v>5</v>
       </c>
-      <c r="Q117" s="3" t="s">
+      <c r="T117" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="R117" s="3">
+      <c r="U117" s="3">
         <v>4</v>
       </c>
-      <c r="S117" s="3">
-        <v>1</v>
-      </c>
-      <c r="T117" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V117" s="3">
+        <v>1</v>
+      </c>
+      <c r="W117" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>43888.413940902778</v>
       </c>
@@ -9027,43 +10094,52 @@
         <v>1</v>
       </c>
       <c r="I118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K118" s="3">
-        <v>1</v>
-      </c>
-      <c r="L118" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L118" s="3">
+        <v>1</v>
+      </c>
+      <c r="M118" s="3">
+        <v>3</v>
+      </c>
+      <c r="N118" s="3">
+        <v>1</v>
+      </c>
+      <c r="O118" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="M118" s="3">
-        <v>1</v>
-      </c>
-      <c r="N118" s="3">
-        <v>1</v>
-      </c>
-      <c r="O118" s="5" t="s">
+      <c r="P118" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="3">
+        <v>1</v>
+      </c>
+      <c r="R118" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="P118" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q118" s="3" t="s">
+      <c r="S118" s="3">
+        <v>3</v>
+      </c>
+      <c r="T118" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="R118" s="3">
-        <v>1</v>
-      </c>
-      <c r="S118" s="5">
-        <v>2</v>
-      </c>
-      <c r="T118" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U118" s="3">
+        <v>1</v>
+      </c>
+      <c r="V118" s="5">
+        <v>2</v>
+      </c>
+      <c r="W118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>43890.453385474539</v>
       </c>
@@ -9086,110 +10162,128 @@
         <v>2</v>
       </c>
       <c r="H119" s="3">
-        <v>3</v>
-      </c>
-      <c r="I119" s="5">
+        <v>0</v>
+      </c>
+      <c r="I119" s="3">
         <v>1</v>
       </c>
       <c r="J119" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" s="3">
         <v>1</v>
       </c>
-      <c r="L119" s="3" t="s">
+      <c r="L119" s="5">
+        <v>1</v>
+      </c>
+      <c r="M119" s="3">
+        <v>1</v>
+      </c>
+      <c r="N119" s="3">
+        <v>1</v>
+      </c>
+      <c r="O119" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="M119" s="5">
-        <v>1</v>
-      </c>
-      <c r="N119" s="3">
-        <v>3</v>
-      </c>
-      <c r="O119" s="3" t="s">
+      <c r="P119" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="3">
+        <v>3</v>
+      </c>
+      <c r="R119" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="P119" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q119" s="3" t="s">
+      <c r="S119" s="5">
+        <v>3</v>
+      </c>
+      <c r="T119" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="R119" s="3">
-        <v>1</v>
-      </c>
-      <c r="S119" s="5">
-        <v>1</v>
-      </c>
-      <c r="T119" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U119" s="3">
+        <v>1</v>
+      </c>
+      <c r="V119" s="5">
+        <v>1</v>
+      </c>
+      <c r="W119" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="M120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="P120" s="5"/>
-      <c r="R120" s="5"/>
+      <c r="Q120" s="3"/>
       <c r="S120" s="5"/>
-      <c r="T120" s="5"/>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U120" s="5"/>
+      <c r="V120" s="5"/>
+      <c r="W120" s="5"/>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
-      <c r="M121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="P121" s="5"/>
-      <c r="R121" s="5"/>
-      <c r="S121" s="6"/>
-      <c r="T121" s="5"/>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q121" s="3"/>
+      <c r="S121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="6"/>
+      <c r="W121" s="5"/>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
-      <c r="M122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="P122" s="5"/>
-      <c r="R122" s="5"/>
-      <c r="S122" s="6"/>
-      <c r="T122" s="5"/>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q122" s="3"/>
+      <c r="S122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="6"/>
+      <c r="W122" s="5"/>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F123" s="3"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="M123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
       <c r="P123" s="5"/>
-      <c r="R123" s="5"/>
-      <c r="T123" s="5"/>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I124" s="5"/>
-      <c r="M124" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="U123" s="5"/>
+      <c r="W123" s="5"/>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="L124" s="5"/>
       <c r="P124" s="5"/>
-      <c r="R124" s="5"/>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I125" s="5"/>
-      <c r="R125" s="5"/>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I126" s="5"/>
+      <c r="S124" s="5"/>
+      <c r="U124" s="5"/>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="L125" s="5"/>
+      <c r="U125" s="5"/>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="L126" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
